--- a/Code/Results/Cases/Case_5_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_23/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,994 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.74192960015247</v>
+        <v>18.62989630955819</v>
       </c>
       <c r="C2">
-        <v>18.99614574906577</v>
+        <v>9.277668699327515</v>
       </c>
       <c r="D2">
-        <v>3.420829717766345</v>
+        <v>6.472030120039374</v>
       </c>
       <c r="E2">
-        <v>16.82346394739563</v>
+        <v>5.804308006248155</v>
       </c>
       <c r="F2">
-        <v>40.48841327218818</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>4.080468853276381</v>
+        <v>68.47570575008307</v>
       </c>
       <c r="I2">
-        <v>24.65908416653203</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>12.47216556656724</v>
+        <v>7.140028371675609</v>
       </c>
       <c r="K2">
-        <v>19.76458859801917</v>
+        <v>14.75864600312651</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.618394331508403</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>11.76768765549121</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.25914423742232</v>
+        <v>17.75359474890227</v>
       </c>
       <c r="C3">
-        <v>17.60323286715081</v>
+        <v>8.58117138978789</v>
       </c>
       <c r="D3">
-        <v>3.456789378321443</v>
+        <v>6.143405724509816</v>
       </c>
       <c r="E3">
-        <v>15.5782254534595</v>
+        <v>5.797072334625579</v>
       </c>
       <c r="F3">
-        <v>38.29481696444849</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>4.080468853276381</v>
+        <v>65.58781853311999</v>
       </c>
       <c r="I3">
-        <v>23.72921101078154</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>11.54992713301628</v>
+        <v>7.104522129969112</v>
       </c>
       <c r="K3">
-        <v>18.36531734917107</v>
+        <v>14.07328139592701</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.672287649081584</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>11.57750324896211</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.30376102008753</v>
+        <v>17.21788778878296</v>
       </c>
       <c r="C4">
-        <v>16.70844092472019</v>
+        <v>8.134790636154881</v>
       </c>
       <c r="D4">
-        <v>3.47827354553713</v>
+        <v>5.936180350588118</v>
       </c>
       <c r="E4">
-        <v>14.77989546611719</v>
+        <v>5.793255396103307</v>
       </c>
       <c r="F4">
-        <v>36.93620097018694</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>4.080468853276381</v>
+        <v>63.79138832790744</v>
       </c>
       <c r="I4">
-        <v>23.16949009383387</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>10.95938442743018</v>
+        <v>7.083403028961419</v>
       </c>
       <c r="K4">
-        <v>17.46467819354667</v>
+        <v>13.65581960128175</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.708818488292286</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>11.47164726707809</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.90289455672866</v>
+        <v>17.0004152312221</v>
       </c>
       <c r="C5">
-        <v>16.33361201890392</v>
+        <v>7.948039467047531</v>
       </c>
       <c r="D5">
-        <v>3.486899697023582</v>
+        <v>5.850382913225125</v>
       </c>
       <c r="E5">
-        <v>14.44582575793286</v>
+        <v>5.791845566229164</v>
       </c>
       <c r="F5">
-        <v>36.37991445701377</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>4.080468853276381</v>
+        <v>63.0538735042506</v>
       </c>
       <c r="I5">
-        <v>22.94424123605278</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>10.71353092698498</v>
+        <v>7.074951294218705</v>
       </c>
       <c r="K5">
-        <v>17.08699924988294</v>
+        <v>13.48672971806773</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.724548641235976</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>11.43119672880615</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.83562737911813</v>
+        <v>16.964362403231</v>
       </c>
       <c r="C6">
-        <v>16.27074934040477</v>
+        <v>7.916732979647197</v>
       </c>
       <c r="D6">
-        <v>3.488324851849153</v>
+        <v>5.836055520228125</v>
       </c>
       <c r="E6">
-        <v>14.38981852639413</v>
+        <v>5.791619939367827</v>
       </c>
       <c r="F6">
-        <v>36.28739600546308</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>4.080468853276381</v>
+        <v>62.9310941081928</v>
       </c>
       <c r="I6">
-        <v>22.90701159317642</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>10.68062334895184</v>
+        <v>7.073556749389389</v>
       </c>
       <c r="K6">
-        <v>17.02363566709805</v>
+        <v>13.45872078046098</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.727210980715271</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>11.42464046002961</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.29840182177391</v>
+        <v>17.21495115032717</v>
       </c>
       <c r="C7">
-        <v>16.70342744270032</v>
+        <v>8.132291846086828</v>
       </c>
       <c r="D7">
-        <v>3.478390376413486</v>
+        <v>5.935028692881509</v>
       </c>
       <c r="E7">
-        <v>14.77542581288505</v>
+        <v>5.793235807715568</v>
       </c>
       <c r="F7">
-        <v>36.92870886449429</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>4.080468853276381</v>
+        <v>63.78146342334763</v>
       </c>
       <c r="I7">
-        <v>23.16644075513004</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>10.95607966983985</v>
+        <v>7.083288441905477</v>
       </c>
       <c r="K7">
-        <v>17.45962814092811</v>
+        <v>13.65353475588215</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.709027242014609</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>11.47109093773736</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.23984488887131</v>
+        <v>18.32738978988984</v>
       </c>
       <c r="C8">
-        <v>18.52391641764892</v>
+        <v>9.041316916903066</v>
       </c>
       <c r="D8">
-        <v>3.433365399384783</v>
+        <v>6.359857917889866</v>
       </c>
       <c r="E8">
-        <v>16.40094790058731</v>
+        <v>5.801675767745714</v>
       </c>
       <c r="F8">
-        <v>39.73463894299267</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>4.080468853276381</v>
+        <v>67.48498518027355</v>
       </c>
       <c r="I8">
-        <v>24.33613524959178</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>12.15909263966699</v>
+        <v>7.127633602096892</v>
       </c>
       <c r="K8">
-        <v>19.29058411617265</v>
+        <v>14.52173484328215</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.636249110996022</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>11.69981089984859</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.70220132092354</v>
+        <v>20.51982498338251</v>
       </c>
       <c r="C9">
-        <v>21.79290652107125</v>
+        <v>10.68219112770717</v>
       </c>
       <c r="D9">
-        <v>3.339276098211578</v>
+        <v>7.149700059639569</v>
       </c>
       <c r="E9">
-        <v>19.33379693657552</v>
+        <v>5.823800432120189</v>
       </c>
       <c r="F9">
-        <v>45.13842786437021</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>4.080468853276381</v>
+        <v>74.55293198776512</v>
       </c>
       <c r="I9">
-        <v>26.72036117189666</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>14.33554942098938</v>
+        <v>7.22085798786294</v>
       </c>
       <c r="K9">
-        <v>22.56352440118062</v>
+        <v>16.24505150196932</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.52192213632089</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>12.23764817146156</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.05431839614514</v>
+        <v>22.13189048369343</v>
       </c>
       <c r="C10">
-        <v>24.03138515346174</v>
+        <v>11.81212839180597</v>
       </c>
       <c r="D10">
-        <v>3.26487547285365</v>
+        <v>7.704826670351619</v>
       </c>
       <c r="E10">
-        <v>21.3538960610332</v>
+        <v>5.844446653195122</v>
       </c>
       <c r="F10">
-        <v>49.05401724532064</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>4.080468853276381</v>
+        <v>79.62488576503056</v>
       </c>
       <c r="I10">
-        <v>28.53361598123326</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>15.83924822234728</v>
+        <v>7.294514727324415</v>
       </c>
       <c r="K10">
-        <v>24.79283889931556</v>
+        <v>17.77560043349969</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.456979284419416</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>12.69133331045167</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.08757776748983</v>
+        <v>22.86591138469911</v>
       </c>
       <c r="C11">
-        <v>25.0196539738909</v>
+        <v>12.31255645228966</v>
       </c>
       <c r="D11">
-        <v>3.229409802110418</v>
+        <v>7.952511516003781</v>
       </c>
       <c r="E11">
-        <v>22.24916406477832</v>
+        <v>5.855065242750888</v>
       </c>
       <c r="F11">
-        <v>50.82859414241845</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>4.080468853276381</v>
+        <v>81.90900674477957</v>
       </c>
       <c r="I11">
-        <v>29.37486363895823</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>16.5068944897741</v>
+        <v>7.32949770595857</v>
       </c>
       <c r="K11">
-        <v>25.77375892195138</v>
+        <v>18.5158727021536</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>5.432035589053309</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>12.91152189077806</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.47404015159526</v>
+        <v>23.1441030851146</v>
       </c>
       <c r="C12">
-        <v>25.39010236173744</v>
+        <v>12.50037632484755</v>
       </c>
       <c r="D12">
-        <v>3.215698795488378</v>
+        <v>8.045681514446365</v>
       </c>
       <c r="E12">
-        <v>22.58532456107858</v>
+        <v>5.859290405930991</v>
       </c>
       <c r="F12">
-        <v>51.50033505384371</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>4.080468853276381</v>
+        <v>82.77111137012783</v>
       </c>
       <c r="I12">
-        <v>29.69616097169499</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>16.75778593833694</v>
+        <v>7.342991785480206</v>
       </c>
       <c r="K12">
-        <v>26.14090851784851</v>
+        <v>18.79366589209609</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5.423297295158309</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>12.99699864283011</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.39101419360508</v>
+        <v>23.08417598248397</v>
       </c>
       <c r="C13">
-        <v>25.31047872277988</v>
+        <v>12.45999595437214</v>
       </c>
       <c r="D13">
-        <v>3.218665056266562</v>
+        <v>8.025641986581256</v>
       </c>
       <c r="E13">
-        <v>22.51304374901699</v>
+        <v>5.858370866058853</v>
       </c>
       <c r="F13">
-        <v>51.35566099088277</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>4.080468853276381</v>
+        <v>82.58555812485255</v>
       </c>
       <c r="I13">
-        <v>29.62683478959269</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>16.70383031049094</v>
+        <v>7.340074011521623</v>
       </c>
       <c r="K13">
-        <v>26.06201934383576</v>
+        <v>18.73394522789446</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.425146977203036</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>12.97849443424441</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.11946570220086</v>
+        <v>22.88879259307944</v>
       </c>
       <c r="C14">
-        <v>25.0502035398772</v>
+        <v>12.32804049698378</v>
       </c>
       <c r="D14">
-        <v>3.22828772468423</v>
+        <v>7.96018865244519</v>
       </c>
       <c r="E14">
-        <v>22.2768739948364</v>
+        <v>5.855408581320478</v>
       </c>
       <c r="F14">
-        <v>50.88385882029633</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>4.080468853276381</v>
+        <v>81.97998604137361</v>
       </c>
       <c r="I14">
-        <v>29.40123952329842</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>16.52757149197538</v>
+        <v>7.330602709491413</v>
       </c>
       <c r="K14">
-        <v>25.80404781375094</v>
+        <v>18.53877568485944</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.431302220110708</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>12.91851138123403</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.95252320148573</v>
+        <v>22.76915066671833</v>
       </c>
       <c r="C15">
-        <v>24.89030146407255</v>
+        <v>12.24700378357185</v>
       </c>
       <c r="D15">
-        <v>3.234143734224792</v>
+        <v>7.920018031602455</v>
       </c>
       <c r="E15">
-        <v>22.1318588605413</v>
+        <v>5.853621589971008</v>
       </c>
       <c r="F15">
-        <v>50.59485855307339</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>4.080468853276381</v>
+        <v>81.60870349809275</v>
       </c>
       <c r="I15">
-        <v>29.26342550591911</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>16.41937019896318</v>
+        <v>7.324834516239549</v>
       </c>
       <c r="K15">
-        <v>25.64548765440421</v>
+        <v>18.41890910968677</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.435166083043184</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>12.88204671781572</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.98609199364736</v>
+        <v>22.08394379701271</v>
       </c>
       <c r="C16">
-        <v>23.9662386292772</v>
+        <v>11.77917322624433</v>
       </c>
       <c r="D16">
-        <v>3.267156723580131</v>
+        <v>7.688548225062088</v>
       </c>
       <c r="E16">
-        <v>21.29495634238033</v>
+        <v>5.84377964670725</v>
       </c>
       <c r="F16">
-        <v>48.93796525555416</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>4.080468853276381</v>
+        <v>79.47518418091369</v>
       </c>
       <c r="I16">
-        <v>28.47899777594863</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>15.79532085537834</v>
+        <v>7.292261045595433</v>
       </c>
       <c r="K16">
-        <v>24.72810389177862</v>
+        <v>17.72684957811595</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.4587057391161</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>12.677230209916</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.38412326082743</v>
+        <v>21.66383516445817</v>
       </c>
       <c r="C17">
-        <v>23.39201647357092</v>
+        <v>11.48887610827226</v>
       </c>
       <c r="D17">
-        <v>3.286962548832018</v>
+        <v>7.545354097370245</v>
       </c>
       <c r="E17">
-        <v>20.77583921803567</v>
+        <v>5.838074332324631</v>
       </c>
       <c r="F17">
-        <v>47.92023690794937</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>4.080468853276381</v>
+        <v>78.16069294386227</v>
       </c>
       <c r="I17">
-        <v>28.00220528577209</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>15.40856899442085</v>
+        <v>7.272679338576236</v>
       </c>
       <c r="K17">
-        <v>24.15712643374944</v>
+        <v>17.29743811498087</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.474355159518477</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>12.55518946384339</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.03439744187769</v>
+        <v>21.42225079149948</v>
       </c>
       <c r="C18">
-        <v>23.05887654440884</v>
+        <v>11.32060764970169</v>
       </c>
       <c r="D18">
-        <v>3.298205122969729</v>
+        <v>7.46253095473433</v>
       </c>
       <c r="E18">
-        <v>20.47498976894202</v>
+        <v>5.834906308961121</v>
       </c>
       <c r="F18">
-        <v>47.33418500972853</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>4.080468853276381</v>
+        <v>77.40241347326202</v>
       </c>
       <c r="I18">
-        <v>27.72947999134153</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>15.18454721470439</v>
+        <v>7.261553058421481</v>
       </c>
       <c r="K18">
-        <v>23.82555757924726</v>
+        <v>17.04857291154079</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.483786062479306</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>12.4862863950994</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.91537379246345</v>
+        <v>21.34046055870687</v>
       </c>
       <c r="C19">
-        <v>22.94557466029916</v>
+        <v>11.26340438002612</v>
       </c>
       <c r="D19">
-        <v>3.301987365052119</v>
+        <v>7.4344072570344</v>
       </c>
       <c r="E19">
-        <v>20.3727227175332</v>
+        <v>5.833852400183019</v>
       </c>
       <c r="F19">
-        <v>47.1356234019493</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>4.080468853276381</v>
+        <v>77.14528059734765</v>
       </c>
       <c r="I19">
-        <v>27.63739023876028</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>15.10841540414113</v>
+        <v>7.257808382555359</v>
       </c>
       <c r="K19">
-        <v>23.71273853943</v>
+        <v>16.96398035853082</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.48705172383375</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>12.46317581748871</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.44856180879423</v>
+        <v>21.70855047117307</v>
       </c>
       <c r="C20">
-        <v>23.4534360956719</v>
+        <v>11.51991114508547</v>
       </c>
       <c r="D20">
-        <v>3.284869948480419</v>
+        <v>7.560644669021746</v>
       </c>
       <c r="E20">
-        <v>20.83133107075851</v>
+        <v>5.838669738009621</v>
       </c>
       <c r="F20">
-        <v>48.0286420462747</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>4.080468853276381</v>
+        <v>78.30084958076381</v>
       </c>
       <c r="I20">
-        <v>28.05280171109397</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>15.44989926409283</v>
+        <v>7.274749473426785</v>
       </c>
       <c r="K20">
-        <v>24.21823159174264</v>
+        <v>17.34334215520269</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>5.472644460583427</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>12.56804651153686</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.19935250197952</v>
+        <v>22.94617354768008</v>
       </c>
       <c r="C21">
-        <v>25.12675079566695</v>
+        <v>12.36684227065287</v>
       </c>
       <c r="D21">
-        <v>3.225469362650947</v>
+        <v>7.979430093763693</v>
       </c>
       <c r="E21">
-        <v>22.34631550587903</v>
+        <v>5.856272889693708</v>
       </c>
       <c r="F21">
-        <v>51.02243857024659</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>4.080468853276381</v>
+        <v>82.15792946158157</v>
       </c>
       <c r="I21">
-        <v>29.46742443777799</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>16.5793916444742</v>
+        <v>7.33337766142592</v>
       </c>
       <c r="K21">
-        <v>25.87993296105101</v>
+        <v>18.59616767946567</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>5.429474678138511</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>12.93607196218962</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.31583261095912</v>
+        <v>23.80602823370566</v>
       </c>
       <c r="C22">
-        <v>26.19859623135107</v>
+        <v>12.91071814868123</v>
       </c>
       <c r="D22">
-        <v>3.184981347445453</v>
+        <v>8.249550027024092</v>
       </c>
       <c r="E22">
-        <v>23.32011359077538</v>
+        <v>5.868984156219924</v>
       </c>
       <c r="F22">
-        <v>53.02615677698892</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>4.080468853276381</v>
+        <v>84.66256922657203</v>
       </c>
       <c r="I22">
-        <v>30.40817749305636</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>17.30657526002278</v>
+        <v>7.37315307061257</v>
       </c>
       <c r="K22">
-        <v>26.94114456767575</v>
+        <v>19.40039226857541</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>5.405410220662559</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>13.18888646627226</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.72231018779951</v>
+        <v>23.32381964817696</v>
       </c>
       <c r="C23">
-        <v>25.62832394266937</v>
+        <v>12.62122249972942</v>
       </c>
       <c r="D23">
-        <v>3.206761209315787</v>
+        <v>8.105679477516322</v>
       </c>
       <c r="E23">
-        <v>22.80166666158743</v>
+        <v>5.862078965166584</v>
       </c>
       <c r="F23">
-        <v>51.93411389904391</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>4.080468853276381</v>
+        <v>83.32705976944087</v>
       </c>
       <c r="I23">
-        <v>29.90443637871949</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>16.91930974369448</v>
+        <v>7.351777892351342</v>
       </c>
       <c r="K23">
-        <v>26.3768489220483</v>
+        <v>18.97237790583426</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>5.417857135415044</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>13.05278670069208</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.41944053213676</v>
+        <v>21.6883348717016</v>
       </c>
       <c r="C24">
-        <v>23.42567770478349</v>
+        <v>11.50588450081609</v>
       </c>
       <c r="D24">
-        <v>3.285816458330461</v>
+        <v>7.553733360912069</v>
       </c>
       <c r="E24">
-        <v>20.80625072593845</v>
+        <v>5.838400208144011</v>
       </c>
       <c r="F24">
-        <v>47.97963508047624</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>4.080468853276381</v>
+        <v>78.23749277579191</v>
       </c>
       <c r="I24">
-        <v>28.02992276744678</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>15.43121909105893</v>
+        <v>7.273813158386979</v>
       </c>
       <c r="K24">
-        <v>24.19061628266914</v>
+        <v>17.32259516187197</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>5.473416519645937</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>12.56222992438344</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.8006758923948</v>
+        <v>19.92635546189755</v>
       </c>
       <c r="C25">
-        <v>20.93884968641305</v>
+        <v>10.25242687378156</v>
       </c>
       <c r="D25">
-        <v>3.365514419246474</v>
+        <v>6.94059393557187</v>
       </c>
       <c r="E25">
-        <v>18.5656925426869</v>
+        <v>5.817125019256462</v>
       </c>
       <c r="F25">
-        <v>43.68720905245377</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>4.080468853276381</v>
+        <v>72.66251662667054</v>
       </c>
       <c r="I25">
-        <v>26.06526446859966</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>13.76479067849676</v>
+        <v>7.194838711691387</v>
       </c>
       <c r="K25">
-        <v>21.71035454276456</v>
+        <v>15.77723779378764</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5.549645082459728</v>
       </c>
       <c r="M25">
+        <v>12.08219040946554</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_23/res_line/loading_percent.xlsx
@@ -421,40 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.62989630955819</v>
+        <v>12.76766181985811</v>
       </c>
       <c r="C2">
-        <v>9.277668699327515</v>
+        <v>6.396420797607711</v>
       </c>
       <c r="D2">
-        <v>6.472030120039374</v>
+        <v>5.160588785553449</v>
       </c>
       <c r="E2">
-        <v>5.804308006248155</v>
+        <v>7.526161133734301</v>
       </c>
       <c r="F2">
-        <v>68.47570575008307</v>
+        <v>24.05246289476322</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>17.29925004348597</v>
       </c>
       <c r="J2">
-        <v>7.140028371675609</v>
+        <v>5.956386531897389</v>
       </c>
       <c r="K2">
-        <v>14.75864600312651</v>
+        <v>10.4137088219415</v>
       </c>
       <c r="L2">
-        <v>5.618394331508403</v>
+        <v>6.63320504898394</v>
       </c>
       <c r="M2">
-        <v>11.76768765549121</v>
+        <v>9.929290740952919</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>13.85703194162384</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>18.05539962713931</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.75359474890227</v>
+        <v>12.01153350180709</v>
       </c>
       <c r="C3">
-        <v>8.58117138978789</v>
+        <v>6.214878383612218</v>
       </c>
       <c r="D3">
-        <v>6.143405724509816</v>
+        <v>5.024871418618828</v>
       </c>
       <c r="E3">
-        <v>5.797072334625579</v>
+        <v>7.532902906923571</v>
       </c>
       <c r="F3">
-        <v>65.58781853311999</v>
+        <v>23.96933792817816</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>17.43220816540568</v>
       </c>
       <c r="J3">
-        <v>7.104522129969112</v>
+        <v>5.995508339153541</v>
       </c>
       <c r="K3">
-        <v>14.07328139592701</v>
+        <v>9.775074768322915</v>
       </c>
       <c r="L3">
-        <v>5.672287649081584</v>
+        <v>6.569632336203409</v>
       </c>
       <c r="M3">
-        <v>11.57750324896211</v>
+        <v>9.650820295800088</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>14.04290525143989</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>18.10618147424369</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.21788778878296</v>
+        <v>11.52528517768518</v>
       </c>
       <c r="C4">
-        <v>8.134790636154881</v>
+        <v>6.10031296947257</v>
       </c>
       <c r="D4">
-        <v>5.936180350588118</v>
+        <v>4.941347138364487</v>
       </c>
       <c r="E4">
-        <v>5.793255396103307</v>
+        <v>7.539417727423189</v>
       </c>
       <c r="F4">
-        <v>63.79138832790744</v>
+        <v>23.93361178585241</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>17.52300605879892</v>
       </c>
       <c r="J4">
-        <v>7.083403028961419</v>
+        <v>6.02038659225596</v>
       </c>
       <c r="K4">
-        <v>13.65581960128175</v>
+        <v>9.360904194380669</v>
       </c>
       <c r="L4">
-        <v>5.708818488292286</v>
+        <v>6.532467103235897</v>
       </c>
       <c r="M4">
-        <v>11.47164726707809</v>
+        <v>9.478864001530491</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>14.15980368768292</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>18.14833451581056</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.0004152312221</v>
+        <v>11.32174849906413</v>
       </c>
       <c r="C5">
-        <v>7.948039467047531</v>
+        <v>6.05288242552419</v>
       </c>
       <c r="D5">
-        <v>5.850382913225125</v>
+        <v>4.907310187911819</v>
       </c>
       <c r="E5">
-        <v>5.791845566229164</v>
+        <v>7.54266257497022</v>
       </c>
       <c r="F5">
-        <v>63.0538735042506</v>
+        <v>23.92281501078935</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>17.56224508523315</v>
       </c>
       <c r="J5">
-        <v>7.074951294218705</v>
+        <v>6.030742603130736</v>
       </c>
       <c r="K5">
-        <v>13.48672971806773</v>
+        <v>9.186598507829054</v>
       </c>
       <c r="L5">
-        <v>5.724548641235976</v>
+        <v>6.517799612626566</v>
       </c>
       <c r="M5">
-        <v>11.43119672880615</v>
+        <v>9.408645285784038</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>14.20815445935836</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>18.16818695117606</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.964362403231</v>
+        <v>11.28763085634489</v>
       </c>
       <c r="C6">
-        <v>7.916732979647197</v>
+        <v>6.044962751091362</v>
       </c>
       <c r="D6">
-        <v>5.836055520228125</v>
+        <v>4.901659825504117</v>
       </c>
       <c r="E6">
-        <v>5.791619939367827</v>
+        <v>7.543236799560527</v>
       </c>
       <c r="F6">
-        <v>62.9310941081928</v>
+        <v>23.92124674363086</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>17.56889401802803</v>
       </c>
       <c r="J6">
-        <v>7.073556749389389</v>
+        <v>6.032475440276906</v>
       </c>
       <c r="K6">
-        <v>13.45872078046098</v>
+        <v>9.157321981257045</v>
       </c>
       <c r="L6">
-        <v>5.727210980715271</v>
+        <v>6.515393145231796</v>
       </c>
       <c r="M6">
-        <v>11.42464046002961</v>
+        <v>9.39697977545733</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>14.21622665392168</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>18.17164252999019</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.21495115032717</v>
+        <v>11.52256180927871</v>
       </c>
       <c r="C7">
-        <v>8.132291846086828</v>
+        <v>6.099676269541752</v>
       </c>
       <c r="D7">
-        <v>5.935028692881509</v>
+        <v>4.940888039150149</v>
       </c>
       <c r="E7">
-        <v>5.793235807715568</v>
+        <v>7.539459109341448</v>
       </c>
       <c r="F7">
-        <v>63.78146342334763</v>
+        <v>23.93345106537392</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>17.52352627211085</v>
       </c>
       <c r="J7">
-        <v>7.083288441905477</v>
+        <v>6.020525371617554</v>
       </c>
       <c r="K7">
-        <v>13.65353475588215</v>
+        <v>9.358575800530877</v>
       </c>
       <c r="L7">
-        <v>5.709027242014609</v>
+        <v>6.532267348744133</v>
       </c>
       <c r="M7">
-        <v>11.47109093773736</v>
+        <v>9.477917459206019</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>14.16045285152486</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>18.14859153364258</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.32738978988984</v>
+        <v>12.5115858130732</v>
       </c>
       <c r="C8">
-        <v>9.041316916903066</v>
+        <v>6.334487667666827</v>
       </c>
       <c r="D8">
-        <v>6.359857917889866</v>
+        <v>5.113861973891158</v>
       </c>
       <c r="E8">
-        <v>5.801675767745714</v>
+        <v>7.527988324871471</v>
       </c>
       <c r="F8">
-        <v>67.48498518027355</v>
+        <v>24.02057133877805</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>17.34315228947048</v>
       </c>
       <c r="J8">
-        <v>7.127633602096892</v>
+        <v>5.969699230315687</v>
       </c>
       <c r="K8">
-        <v>14.52173484328215</v>
+        <v>10.19809017954476</v>
       </c>
       <c r="L8">
-        <v>5.636249110996022</v>
+        <v>6.610902227511008</v>
       </c>
       <c r="M8">
-        <v>11.69981089984859</v>
+        <v>9.833534582031165</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>13.92055617748827</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>18.07058069629857</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.51982498338251</v>
+        <v>14.27199750074741</v>
       </c>
       <c r="C9">
-        <v>10.68219112770717</v>
+        <v>6.769027043141457</v>
       </c>
       <c r="D9">
-        <v>7.149700059639569</v>
+        <v>5.44951842494998</v>
       </c>
       <c r="E9">
-        <v>5.823800432120189</v>
+        <v>7.524666618958865</v>
       </c>
       <c r="F9">
-        <v>74.55293198776512</v>
+        <v>24.31663554334226</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>17.06522159885323</v>
       </c>
       <c r="J9">
-        <v>7.22085798786294</v>
+        <v>5.87672153678121</v>
       </c>
       <c r="K9">
-        <v>16.24505150196932</v>
+        <v>11.66921860727308</v>
       </c>
       <c r="L9">
-        <v>5.52192213632089</v>
+        <v>6.779558311420157</v>
       </c>
       <c r="M9">
-        <v>12.23764817146156</v>
+        <v>10.51907692968284</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>13.47130951466321</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>18.00849148948104</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.13189048369343</v>
+        <v>15.48451713918382</v>
       </c>
       <c r="C10">
-        <v>11.81212839180597</v>
+        <v>7.070929133399193</v>
       </c>
       <c r="D10">
-        <v>7.704826670351619</v>
+        <v>5.691467018458325</v>
       </c>
       <c r="E10">
-        <v>5.844446653195122</v>
+        <v>7.53435864733652</v>
       </c>
       <c r="F10">
-        <v>79.62488576503056</v>
+        <v>24.61521911983054</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>16.91172003971819</v>
       </c>
       <c r="J10">
-        <v>7.294514727324415</v>
+        <v>5.812331380842581</v>
       </c>
       <c r="K10">
-        <v>17.77560043349969</v>
+        <v>12.64352396347879</v>
       </c>
       <c r="L10">
-        <v>5.456979284419416</v>
+        <v>6.911744797952053</v>
       </c>
       <c r="M10">
-        <v>12.69133331045167</v>
+        <v>11.01053028693285</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>13.15298985101605</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>18.02357843786258</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.86591138469911</v>
+        <v>16.03697421272021</v>
       </c>
       <c r="C11">
-        <v>12.31255645228966</v>
+        <v>7.204245945042949</v>
       </c>
       <c r="D11">
-        <v>7.952511516003781</v>
+        <v>5.800057824694798</v>
       </c>
       <c r="E11">
-        <v>5.855065242750888</v>
+        <v>7.541496514653669</v>
       </c>
       <c r="F11">
-        <v>81.90900674477957</v>
+        <v>24.76955502124215</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>16.85394151429072</v>
       </c>
       <c r="J11">
-        <v>7.32949770595857</v>
+        <v>5.783853972077155</v>
       </c>
       <c r="K11">
-        <v>18.5158727021536</v>
+        <v>13.06380042591148</v>
       </c>
       <c r="L11">
-        <v>5.432035589053309</v>
+        <v>6.973554125484115</v>
       </c>
       <c r="M11">
-        <v>12.91152189077806</v>
+        <v>11.23053669657311</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>13.01045434301692</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>18.04477021035939</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.1441030851146</v>
+        <v>16.24169375407646</v>
       </c>
       <c r="C12">
-        <v>12.50037632484755</v>
+        <v>7.254134181500699</v>
       </c>
       <c r="D12">
-        <v>8.045681514446365</v>
+        <v>5.840932095774263</v>
       </c>
       <c r="E12">
-        <v>5.859290405930991</v>
+        <v>7.544599430718099</v>
       </c>
       <c r="F12">
-        <v>82.77111137012783</v>
+        <v>24.83072501731423</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>16.83388699670584</v>
       </c>
       <c r="J12">
-        <v>7.342991785480206</v>
+        <v>5.773184384752027</v>
       </c>
       <c r="K12">
-        <v>18.79366589209609</v>
+        <v>13.21966836312647</v>
       </c>
       <c r="L12">
-        <v>5.423297295158309</v>
+        <v>6.997190112194293</v>
       </c>
       <c r="M12">
-        <v>12.99699864283011</v>
+        <v>11.31326924436945</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>12.95678275599657</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>18.05494991549153</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.08417598248397</v>
+        <v>16.19780248499691</v>
       </c>
       <c r="C13">
-        <v>12.45999595437214</v>
+        <v>7.24341661237492</v>
       </c>
       <c r="D13">
-        <v>8.025641986581256</v>
+        <v>5.832140582357874</v>
       </c>
       <c r="E13">
-        <v>5.858370866058853</v>
+        <v>7.543913254085203</v>
       </c>
       <c r="F13">
-        <v>82.58555812485255</v>
+        <v>24.81742873205063</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>16.83812341699064</v>
       </c>
       <c r="J13">
-        <v>7.340074011521623</v>
+        <v>5.775477239379589</v>
       </c>
       <c r="K13">
-        <v>18.73394522789446</v>
+        <v>13.18624505426449</v>
       </c>
       <c r="L13">
-        <v>5.425146977203036</v>
+        <v>6.992089619503163</v>
       </c>
       <c r="M13">
-        <v>12.97849443424441</v>
+        <v>11.29547806025377</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>12.96832877124863</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>18.0526601930152</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.88879259307944</v>
+        <v>16.05390623423822</v>
       </c>
       <c r="C14">
-        <v>12.32804049698378</v>
+        <v>7.208362314864125</v>
       </c>
       <c r="D14">
-        <v>7.96018865244519</v>
+        <v>5.803425707897671</v>
       </c>
       <c r="E14">
-        <v>5.855408581320478</v>
+        <v>7.541743734520452</v>
       </c>
       <c r="F14">
-        <v>81.97998604137361</v>
+        <v>24.77453252075563</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>16.85225449896934</v>
       </c>
       <c r="J14">
-        <v>7.330602709491413</v>
+        <v>5.782973906947444</v>
       </c>
       <c r="K14">
-        <v>18.53877568485944</v>
+        <v>13.07668943276057</v>
       </c>
       <c r="L14">
-        <v>5.431302220110708</v>
+        <v>6.975494123158324</v>
       </c>
       <c r="M14">
-        <v>12.91851138123403</v>
+        <v>11.23735511896083</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>13.00603280180394</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>18.04556397366424</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.76915066671833</v>
+        <v>15.965182942256</v>
       </c>
       <c r="C15">
-        <v>12.24700378357185</v>
+        <v>7.186812460158976</v>
       </c>
       <c r="D15">
-        <v>7.920018031602455</v>
+        <v>5.785803911075455</v>
       </c>
       <c r="E15">
-        <v>5.853621589971008</v>
+        <v>7.540467151169452</v>
       </c>
       <c r="F15">
-        <v>81.60870349809275</v>
+        <v>24.74861423826306</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>16.86115066682527</v>
       </c>
       <c r="J15">
-        <v>7.324834516239549</v>
+        <v>5.787580616402562</v>
       </c>
       <c r="K15">
-        <v>18.41890910968677</v>
+        <v>13.00915665589385</v>
       </c>
       <c r="L15">
-        <v>5.435166083043184</v>
+        <v>6.965358545924964</v>
       </c>
       <c r="M15">
-        <v>12.88204671781572</v>
+        <v>11.20167584848238</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>13.02916643590802</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>18.04150076125853</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.08394379701271</v>
+        <v>15.44778300126498</v>
       </c>
       <c r="C16">
-        <v>11.77917322624433</v>
+        <v>7.062134071645512</v>
       </c>
       <c r="D16">
-        <v>7.688548225062088</v>
+        <v>5.684337653946174</v>
       </c>
       <c r="E16">
-        <v>5.84377964670725</v>
+        <v>7.533947729581104</v>
       </c>
       <c r="F16">
-        <v>79.47518418091369</v>
+        <v>24.60551100702335</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>16.91574626168861</v>
       </c>
       <c r="J16">
-        <v>7.292261045595433</v>
+        <v>5.814208583823997</v>
       </c>
       <c r="K16">
-        <v>17.72684957811595</v>
+        <v>12.61559767336227</v>
       </c>
       <c r="L16">
-        <v>5.4587057391161</v>
+        <v>6.907738217731982</v>
       </c>
       <c r="M16">
-        <v>12.677230209916</v>
+        <v>10.99607481513262</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>13.16234862786286</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>18.02248990188646</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.66383516445817</v>
+        <v>15.12234329776879</v>
       </c>
       <c r="C17">
-        <v>11.48887610827226</v>
+        <v>6.984604554276169</v>
       </c>
       <c r="D17">
-        <v>7.545354097370245</v>
+        <v>5.621688238956943</v>
       </c>
       <c r="E17">
-        <v>5.838074332324631</v>
+        <v>7.53065259769692</v>
       </c>
       <c r="F17">
-        <v>78.16069294386227</v>
+        <v>24.52251010752932</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>16.95238942952718</v>
       </c>
       <c r="J17">
-        <v>7.272679338576236</v>
+        <v>5.830750458907932</v>
       </c>
       <c r="K17">
-        <v>17.29743811498087</v>
+        <v>12.36829746641346</v>
       </c>
       <c r="L17">
-        <v>5.474355159518477</v>
+        <v>6.87281171340029</v>
       </c>
       <c r="M17">
-        <v>12.55518946384339</v>
+        <v>10.86898354588667</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>13.2446170368414</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>18.01456439185757</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.42225079149948</v>
+        <v>14.94253980796365</v>
       </c>
       <c r="C18">
-        <v>11.32060764970169</v>
+        <v>6.93963410851612</v>
       </c>
       <c r="D18">
-        <v>7.46253095473433</v>
+        <v>5.58551719634033</v>
       </c>
       <c r="E18">
-        <v>5.834906308961121</v>
+        <v>7.529013735205613</v>
       </c>
       <c r="F18">
-        <v>77.40241347326202</v>
+        <v>24.47650878097547</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>16.97459404465291</v>
       </c>
       <c r="J18">
-        <v>7.261553058421481</v>
+        <v>5.84034170240856</v>
       </c>
       <c r="K18">
-        <v>17.04857291154079</v>
+        <v>12.22389643099881</v>
       </c>
       <c r="L18">
-        <v>5.483786062479306</v>
+        <v>6.852881429019916</v>
       </c>
       <c r="M18">
-        <v>12.4862863950994</v>
+        <v>10.79555265285785</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>13.29215072617064</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>18.01134886961226</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.34046055870687</v>
+        <v>14.88286198479163</v>
       </c>
       <c r="C19">
-        <v>11.26340438002612</v>
+        <v>6.924343647282353</v>
       </c>
       <c r="D19">
-        <v>7.4344072570344</v>
+        <v>5.573247934703748</v>
       </c>
       <c r="E19">
-        <v>5.833852400183019</v>
+        <v>7.528502652653255</v>
       </c>
       <c r="F19">
-        <v>77.14528059734765</v>
+        <v>24.46123006763099</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>16.98230321735007</v>
       </c>
       <c r="J19">
-        <v>7.257808382555359</v>
+        <v>5.843602407723838</v>
       </c>
       <c r="K19">
-        <v>16.96398035853082</v>
+        <v>12.17463319551672</v>
       </c>
       <c r="L19">
-        <v>5.48705172383375</v>
+        <v>6.846160937871429</v>
       </c>
       <c r="M19">
-        <v>12.46317581748871</v>
+        <v>10.77063548080451</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>13.30828243262933</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>18.01048793971781</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.70855047117307</v>
+        <v>15.15729347227736</v>
       </c>
       <c r="C20">
-        <v>11.51991114508547</v>
+        <v>6.99289691524245</v>
       </c>
       <c r="D20">
-        <v>7.560644669021746</v>
+        <v>5.628371793674272</v>
       </c>
       <c r="E20">
-        <v>5.838669738009621</v>
+        <v>7.530976777854348</v>
       </c>
       <c r="F20">
-        <v>78.30084958076381</v>
+        <v>24.53116527107573</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>16.94837125917709</v>
       </c>
       <c r="J20">
-        <v>7.274749473426785</v>
+        <v>5.828981620539373</v>
       </c>
       <c r="K20">
-        <v>17.34334215520269</v>
+        <v>12.39484648687707</v>
       </c>
       <c r="L20">
-        <v>5.472644460583427</v>
+        <v>6.876513373267739</v>
       </c>
       <c r="M20">
-        <v>12.56804651153686</v>
+        <v>10.88254743485194</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>13.23583732632731</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>18.01526839482451</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.94617354768008</v>
+        <v>16.0962934055854</v>
       </c>
       <c r="C21">
-        <v>12.36684227065287</v>
+        <v>7.218674912058424</v>
       </c>
       <c r="D21">
-        <v>7.979430093763693</v>
+        <v>5.811866919597223</v>
       </c>
       <c r="E21">
-        <v>5.856272889693708</v>
+        <v>7.542370060227984</v>
       </c>
       <c r="F21">
-        <v>82.15792946158157</v>
+        <v>24.78705769472717</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>16.84805357297112</v>
       </c>
       <c r="J21">
-        <v>7.33337766142592</v>
+        <v>5.780768878224077</v>
       </c>
       <c r="K21">
-        <v>18.59616767946567</v>
+        <v>13.1089574825711</v>
       </c>
       <c r="L21">
-        <v>5.429474678138511</v>
+        <v>6.980362464673363</v>
       </c>
       <c r="M21">
-        <v>12.93607196218962</v>
+        <v>11.25444345294762</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>12.99495016523286</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>18.04758907091002</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.80602823370566</v>
+        <v>16.68386842167537</v>
       </c>
       <c r="C22">
-        <v>12.91071814868123</v>
+        <v>7.362754224747893</v>
       </c>
       <c r="D22">
-        <v>8.249550027024092</v>
+        <v>5.930339788975726</v>
       </c>
       <c r="E22">
-        <v>5.868984156219924</v>
+        <v>7.552150985368381</v>
       </c>
       <c r="F22">
-        <v>84.66256922657203</v>
+        <v>24.97021590164225</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>16.79317323895208</v>
       </c>
       <c r="J22">
-        <v>7.37315307061257</v>
+        <v>5.749923242917173</v>
       </c>
       <c r="K22">
-        <v>19.40039226857541</v>
+        <v>13.55655285644518</v>
       </c>
       <c r="L22">
-        <v>5.405410220662559</v>
+        <v>7.049570186949603</v>
       </c>
       <c r="M22">
-        <v>13.18888646627226</v>
+        <v>11.49409750069431</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>12.83927407089111</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>18.0813163660094</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.32381964817696</v>
+        <v>16.37264404753565</v>
       </c>
       <c r="C23">
-        <v>12.62122249972942</v>
+        <v>7.286179847716108</v>
       </c>
       <c r="D23">
-        <v>8.105679477516322</v>
+        <v>5.867252082446804</v>
       </c>
       <c r="E23">
-        <v>5.862078965166584</v>
+        <v>7.546714606324485</v>
       </c>
       <c r="F23">
-        <v>83.32705976944087</v>
+        <v>24.87098434491605</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>16.82145483366196</v>
       </c>
       <c r="J23">
-        <v>7.351777892351342</v>
+        <v>5.766326339701804</v>
       </c>
       <c r="K23">
-        <v>18.97237790583426</v>
+        <v>13.31940544367961</v>
       </c>
       <c r="L23">
-        <v>5.417857135415044</v>
+        <v>7.012514078434164</v>
       </c>
       <c r="M23">
-        <v>13.05278670069208</v>
+        <v>11.36652121823672</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>12.92220840153372</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>18.0621310231717</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.6883348717016</v>
+        <v>15.14150200049911</v>
       </c>
       <c r="C24">
-        <v>11.50588450081609</v>
+        <v>6.989149176181876</v>
       </c>
       <c r="D24">
-        <v>7.553733360912069</v>
+        <v>5.625350632644543</v>
       </c>
       <c r="E24">
-        <v>5.838400208144011</v>
+        <v>7.530829420586958</v>
       </c>
       <c r="F24">
-        <v>78.23749277579191</v>
+        <v>24.5272469285436</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>16.95018433639642</v>
       </c>
       <c r="J24">
-        <v>7.273813158386979</v>
+        <v>5.829781059544631</v>
       </c>
       <c r="K24">
-        <v>17.32259516187197</v>
+        <v>12.38285060589685</v>
       </c>
       <c r="L24">
-        <v>5.473416519645937</v>
+        <v>6.874839386569389</v>
       </c>
       <c r="M24">
-        <v>12.56222992438344</v>
+        <v>10.87641633056592</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>13.23980589513825</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>18.01494594544485</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.92635546189755</v>
+        <v>13.8154705063532</v>
       </c>
       <c r="C25">
-        <v>10.25242687378156</v>
+        <v>6.654421210935305</v>
       </c>
       <c r="D25">
-        <v>6.94059393557187</v>
+        <v>5.359363280105386</v>
       </c>
       <c r="E25">
-        <v>5.817125019256462</v>
+        <v>7.523466528488981</v>
       </c>
       <c r="F25">
-        <v>72.66251662667054</v>
+        <v>24.2226275516144</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>17.13184653779147</v>
       </c>
       <c r="J25">
-        <v>7.194838711691387</v>
+        <v>5.901174172786043</v>
       </c>
       <c r="K25">
-        <v>15.77723779378764</v>
+        <v>11.28998924100428</v>
       </c>
       <c r="L25">
-        <v>5.549645082459728</v>
+        <v>6.732438383749116</v>
       </c>
       <c r="M25">
-        <v>12.08219040946554</v>
+        <v>10.33542900184853</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>13.59069216151578</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>18.01501378409879</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_23/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.76766181985811</v>
+        <v>13.36538210713168</v>
       </c>
       <c r="C2">
-        <v>6.396420797607711</v>
+        <v>6.695632360840831</v>
       </c>
       <c r="D2">
-        <v>5.160588785553449</v>
+        <v>7.963456263971691</v>
       </c>
       <c r="E2">
-        <v>7.526161133734301</v>
+        <v>12.84960670177691</v>
       </c>
       <c r="F2">
-        <v>24.05246289476322</v>
+        <v>37.2558986646689</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>17.29925004348597</v>
+        <v>28.00070937863678</v>
       </c>
       <c r="J2">
-        <v>5.956386531897389</v>
+        <v>10.14632020270577</v>
       </c>
       <c r="K2">
-        <v>10.4137088219415</v>
+        <v>10.74762511573978</v>
       </c>
       <c r="L2">
-        <v>6.63320504898394</v>
+        <v>11.19551048030361</v>
       </c>
       <c r="M2">
-        <v>9.929290740952919</v>
+        <v>15.38524925947977</v>
       </c>
       <c r="N2">
-        <v>13.85703194162384</v>
+        <v>21.41455861298651</v>
       </c>
       <c r="O2">
-        <v>18.05539962713931</v>
+        <v>28.77495283335057</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.01153350180709</v>
+        <v>13.19134087224912</v>
       </c>
       <c r="C3">
-        <v>6.214878383612218</v>
+        <v>6.63440299520056</v>
       </c>
       <c r="D3">
-        <v>5.024871418618828</v>
+        <v>7.954597282926129</v>
       </c>
       <c r="E3">
-        <v>7.532902906923571</v>
+        <v>12.87095082194841</v>
       </c>
       <c r="F3">
-        <v>23.96933792817816</v>
+        <v>37.34020316456299</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>17.43220816540568</v>
+        <v>28.08630121466497</v>
       </c>
       <c r="J3">
-        <v>5.995508339153541</v>
+        <v>10.16130629157166</v>
       </c>
       <c r="K3">
-        <v>9.775074768322915</v>
+        <v>10.62279215314734</v>
       </c>
       <c r="L3">
-        <v>6.569632336203409</v>
+        <v>11.20415672931719</v>
       </c>
       <c r="M3">
-        <v>9.650820295800088</v>
+        <v>15.36437822379475</v>
       </c>
       <c r="N3">
-        <v>14.04290525143989</v>
+        <v>21.47173500941634</v>
       </c>
       <c r="O3">
-        <v>18.10618147424369</v>
+        <v>28.85430788210178</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.52528517768518</v>
+        <v>13.08553309970793</v>
       </c>
       <c r="C4">
-        <v>6.10031296947257</v>
+        <v>6.5959484876531</v>
       </c>
       <c r="D4">
-        <v>4.941347138364487</v>
+        <v>7.950142678483319</v>
       </c>
       <c r="E4">
-        <v>7.539417727423189</v>
+        <v>12.88524882360595</v>
       </c>
       <c r="F4">
-        <v>23.93361178585241</v>
+        <v>37.39844483412975</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>17.52300605879892</v>
+        <v>28.14282860660875</v>
       </c>
       <c r="J4">
-        <v>6.02038659225596</v>
+        <v>10.17100951227424</v>
       </c>
       <c r="K4">
-        <v>9.360904194380669</v>
+        <v>10.54703833805129</v>
       </c>
       <c r="L4">
-        <v>6.532467103235897</v>
+        <v>11.21062491242877</v>
       </c>
       <c r="M4">
-        <v>9.478864001530491</v>
+        <v>15.35341062579728</v>
       </c>
       <c r="N4">
-        <v>14.15980368768292</v>
+        <v>21.50851003005467</v>
       </c>
       <c r="O4">
-        <v>18.14833451581056</v>
+        <v>28.90756208757614</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.32174849906413</v>
+        <v>13.04272982242564</v>
       </c>
       <c r="C5">
-        <v>6.05288242552419</v>
+        <v>6.580068127104913</v>
       </c>
       <c r="D5">
-        <v>4.907310187911819</v>
+        <v>7.948576769788035</v>
       </c>
       <c r="E5">
-        <v>7.54266257497022</v>
+        <v>12.89137582665014</v>
       </c>
       <c r="F5">
-        <v>23.92281501078935</v>
+        <v>37.42380704983344</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>17.56224508523315</v>
+        <v>28.16686369523497</v>
       </c>
       <c r="J5">
-        <v>6.030742603130736</v>
+        <v>10.17509016190045</v>
       </c>
       <c r="K5">
-        <v>9.186598507829054</v>
+        <v>10.51642546351303</v>
       </c>
       <c r="L5">
-        <v>6.517799612626566</v>
+        <v>11.21355297384097</v>
       </c>
       <c r="M5">
-        <v>9.408645285784038</v>
+        <v>15.3494094466843</v>
       </c>
       <c r="N5">
-        <v>14.20815445935836</v>
+        <v>21.5239168964713</v>
       </c>
       <c r="O5">
-        <v>18.16818695117606</v>
+        <v>28.93040249528794</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.28763085634489</v>
+        <v>13.03564277974939</v>
       </c>
       <c r="C6">
-        <v>6.044962751091362</v>
+        <v>6.577418716601017</v>
       </c>
       <c r="D6">
-        <v>4.901659825504117</v>
+        <v>7.948331862024374</v>
       </c>
       <c r="E6">
-        <v>7.543236799560527</v>
+        <v>12.89241137357056</v>
       </c>
       <c r="F6">
-        <v>23.92124674363086</v>
+        <v>37.42811674349814</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>17.56889401802803</v>
+        <v>28.17091509896891</v>
       </c>
       <c r="J6">
-        <v>6.032475440276906</v>
+        <v>10.17577540180908</v>
       </c>
       <c r="K6">
-        <v>9.157321981257045</v>
+        <v>10.51135871092026</v>
       </c>
       <c r="L6">
-        <v>6.515393145231796</v>
+        <v>11.21405684551831</v>
       </c>
       <c r="M6">
-        <v>9.39697977545733</v>
+        <v>15.34877343558625</v>
       </c>
       <c r="N6">
-        <v>14.21622665392168</v>
+        <v>21.52650064211401</v>
       </c>
       <c r="O6">
-        <v>18.17164252999019</v>
+        <v>28.93426390737418</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.52256180927871</v>
+        <v>13.084954502695</v>
       </c>
       <c r="C7">
-        <v>6.099676269541752</v>
+        <v>6.595735160830602</v>
       </c>
       <c r="D7">
-        <v>4.940888039150149</v>
+        <v>7.950120548157551</v>
       </c>
       <c r="E7">
-        <v>7.539459109341448</v>
+        <v>12.88533023725611</v>
       </c>
       <c r="F7">
-        <v>23.93345106537392</v>
+        <v>37.39878028621649</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>17.52352627211085</v>
+        <v>28.14314870372099</v>
       </c>
       <c r="J7">
-        <v>6.020525371617554</v>
+        <v>10.17106403264567</v>
       </c>
       <c r="K7">
-        <v>9.358575800530877</v>
+        <v>10.54662439708293</v>
       </c>
       <c r="L7">
-        <v>6.532267348744133</v>
+        <v>11.21066321718566</v>
       </c>
       <c r="M7">
-        <v>9.477917459206019</v>
+        <v>15.35335476404914</v>
       </c>
       <c r="N7">
-        <v>14.16045285152486</v>
+        <v>21.50871610727053</v>
       </c>
       <c r="O7">
-        <v>18.14859153364258</v>
+        <v>28.90786551027012</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.5115858130732</v>
+        <v>13.30518345375274</v>
       </c>
       <c r="C8">
-        <v>6.334487667666827</v>
+        <v>6.674702583014734</v>
       </c>
       <c r="D8">
-        <v>5.113861973891158</v>
+        <v>7.960198353692478</v>
       </c>
       <c r="E8">
-        <v>7.527988324871471</v>
+        <v>12.85671896027818</v>
       </c>
       <c r="F8">
-        <v>24.02057133877805</v>
+        <v>37.28362185379828</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>17.34315228947048</v>
+        <v>28.02939701832913</v>
       </c>
       <c r="J8">
-        <v>5.969699230315687</v>
+        <v>10.15138348991171</v>
       </c>
       <c r="K8">
-        <v>10.19809017954476</v>
+        <v>10.70441678833006</v>
       </c>
       <c r="L8">
-        <v>6.610902227511008</v>
+        <v>11.19825151000541</v>
       </c>
       <c r="M8">
-        <v>9.833534582031165</v>
+        <v>15.37767179600851</v>
       </c>
       <c r="N8">
-        <v>13.92055617748827</v>
+        <v>21.43392746270413</v>
       </c>
       <c r="O8">
-        <v>18.07058069629857</v>
+        <v>28.80137417392836</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.27199750074741</v>
+        <v>13.74324987089823</v>
       </c>
       <c r="C9">
-        <v>6.769027043141457</v>
+        <v>6.822469423968107</v>
       </c>
       <c r="D9">
-        <v>5.44951842494998</v>
+        <v>7.98769514940862</v>
       </c>
       <c r="E9">
-        <v>7.524666618958865</v>
+        <v>12.81005065813147</v>
       </c>
       <c r="F9">
-        <v>24.31663554334226</v>
+        <v>37.10922935887059</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>17.06522159885323</v>
+        <v>27.83783657662011</v>
       </c>
       <c r="J9">
-        <v>5.87672153678121</v>
+        <v>10.11675472726563</v>
       </c>
       <c r="K9">
-        <v>11.66921860727308</v>
+        <v>11.01949735549793</v>
       </c>
       <c r="L9">
-        <v>6.779558311420157</v>
+        <v>11.18307993518444</v>
       </c>
       <c r="M9">
-        <v>10.51907692968284</v>
+        <v>15.43984487921815</v>
       </c>
       <c r="N9">
-        <v>13.47130951466321</v>
+        <v>21.300450429858</v>
       </c>
       <c r="O9">
-        <v>18.00849148948104</v>
+        <v>28.62849532349906</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.48451713918382</v>
+        <v>14.06598710138387</v>
       </c>
       <c r="C10">
-        <v>7.070929133399193</v>
+        <v>6.926362933717296</v>
       </c>
       <c r="D10">
-        <v>5.691467018458325</v>
+        <v>8.012498875186253</v>
       </c>
       <c r="E10">
-        <v>7.53435864733652</v>
+        <v>12.78148389353998</v>
       </c>
       <c r="F10">
-        <v>24.61521911983054</v>
+        <v>37.01249160027587</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>16.91172003971819</v>
+        <v>27.71627246617023</v>
       </c>
       <c r="J10">
-        <v>5.812331380842581</v>
+        <v>10.09370748013383</v>
       </c>
       <c r="K10">
-        <v>12.64352396347879</v>
+        <v>11.25249355141858</v>
       </c>
       <c r="L10">
-        <v>6.911744797952053</v>
+        <v>11.17747944793943</v>
       </c>
       <c r="M10">
-        <v>11.01053028693285</v>
+        <v>15.49411566024001</v>
       </c>
       <c r="N10">
-        <v>13.15298985101605</v>
+        <v>21.21034289319119</v>
       </c>
       <c r="O10">
-        <v>18.02357843786258</v>
+        <v>28.52340685459264</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.03697421272021</v>
+        <v>14.21240084361246</v>
       </c>
       <c r="C11">
-        <v>7.204245945042949</v>
+        <v>6.972540807652503</v>
       </c>
       <c r="D11">
-        <v>5.800057824694798</v>
+        <v>8.024755523230203</v>
       </c>
       <c r="E11">
-        <v>7.541496514653669</v>
+        <v>12.76972308288734</v>
       </c>
       <c r="F11">
-        <v>24.76955502124215</v>
+        <v>36.97530221019585</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>16.85394151429072</v>
+        <v>27.66512701488289</v>
       </c>
       <c r="J11">
-        <v>5.783853972077155</v>
+        <v>10.08373785829166</v>
       </c>
       <c r="K11">
-        <v>13.06380042591148</v>
+        <v>11.35840922530276</v>
       </c>
       <c r="L11">
-        <v>6.973554125484115</v>
+        <v>11.17612608431016</v>
       </c>
       <c r="M11">
-        <v>11.23053669657311</v>
+        <v>15.52061483275128</v>
       </c>
       <c r="N11">
-        <v>13.01045434301692</v>
+        <v>21.17106183898331</v>
       </c>
       <c r="O11">
-        <v>18.04477021035939</v>
+        <v>28.48036166203178</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.24169375407646</v>
+        <v>14.26773739768695</v>
       </c>
       <c r="C12">
-        <v>7.254134181500699</v>
+        <v>6.9898653895001</v>
       </c>
       <c r="D12">
-        <v>5.840932095774263</v>
+        <v>8.029534310907994</v>
       </c>
       <c r="E12">
-        <v>7.544599430718099</v>
+        <v>12.76544647895789</v>
       </c>
       <c r="F12">
-        <v>24.83072501731423</v>
+        <v>36.96219975117214</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>16.83388699670584</v>
+        <v>27.64635657077955</v>
       </c>
       <c r="J12">
-        <v>5.773184384752027</v>
+        <v>10.08003627420852</v>
       </c>
       <c r="K12">
-        <v>13.21966836312647</v>
+        <v>11.39847242479209</v>
       </c>
       <c r="L12">
-        <v>6.997190112194293</v>
+        <v>11.17578443414197</v>
       </c>
       <c r="M12">
-        <v>11.31326924436945</v>
+        <v>15.53090469009545</v>
       </c>
       <c r="N12">
-        <v>12.95678275599657</v>
+        <v>21.15643168496027</v>
       </c>
       <c r="O12">
-        <v>18.05494991549153</v>
+        <v>28.46474614007373</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.19780248499691</v>
+        <v>14.25582521921544</v>
       </c>
       <c r="C13">
-        <v>7.24341661237492</v>
+        <v>6.986141530668742</v>
       </c>
       <c r="D13">
-        <v>5.832140582357874</v>
+        <v>8.028499040854218</v>
       </c>
       <c r="E13">
-        <v>7.543913254085203</v>
+        <v>12.76635966044616</v>
       </c>
       <c r="F13">
-        <v>24.81742873205063</v>
+        <v>36.96497799998614</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>16.83812341699064</v>
+        <v>27.65037256314137</v>
       </c>
       <c r="J13">
-        <v>5.775477239379589</v>
+        <v>10.08083020394998</v>
       </c>
       <c r="K13">
-        <v>13.18624505426449</v>
+        <v>11.38984662116082</v>
       </c>
       <c r="L13">
-        <v>6.992089619503163</v>
+        <v>11.17585043133108</v>
       </c>
       <c r="M13">
-        <v>11.29547806025377</v>
+        <v>15.52867732109574</v>
       </c>
       <c r="N13">
-        <v>12.96832877124863</v>
+        <v>21.15957168292993</v>
       </c>
       <c r="O13">
-        <v>18.0526601930152</v>
+        <v>28.4680787636655</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.05390623423822</v>
+        <v>14.21695584116628</v>
       </c>
       <c r="C14">
-        <v>7.208362314864125</v>
+        <v>6.97396939222093</v>
       </c>
       <c r="D14">
-        <v>5.803425707897671</v>
+        <v>8.025145936759372</v>
       </c>
       <c r="E14">
-        <v>7.541743734520452</v>
+        <v>12.76936770067804</v>
       </c>
       <c r="F14">
-        <v>24.77453252075563</v>
+        <v>36.97420461566006</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>16.85225449896934</v>
+        <v>27.6635707909805</v>
       </c>
       <c r="J14">
-        <v>5.782973906947444</v>
+        <v>10.08343185157557</v>
       </c>
       <c r="K14">
-        <v>13.07668943276057</v>
+        <v>11.36170633769741</v>
       </c>
       <c r="L14">
-        <v>6.975494123158324</v>
+        <v>11.17609455799589</v>
       </c>
       <c r="M14">
-        <v>11.23735511896083</v>
+        <v>15.52145630180559</v>
       </c>
       <c r="N14">
-        <v>13.00603280180394</v>
+        <v>21.16985330876407</v>
       </c>
       <c r="O14">
-        <v>18.04556397366424</v>
+        <v>28.47906323873746</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.965182942256</v>
+        <v>14.19313182554006</v>
       </c>
       <c r="C15">
-        <v>7.186812460158976</v>
+        <v>6.966492332625799</v>
       </c>
       <c r="D15">
-        <v>5.785803911075455</v>
+        <v>8.023109889071533</v>
       </c>
       <c r="E15">
-        <v>7.540467151169452</v>
+        <v>12.77123324146979</v>
       </c>
       <c r="F15">
-        <v>24.74861423826306</v>
+        <v>36.97998385345252</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>16.86115066682527</v>
+        <v>27.67173285727855</v>
       </c>
       <c r="J15">
-        <v>5.787580616402562</v>
+        <v>10.08503502385116</v>
       </c>
       <c r="K15">
-        <v>13.00915665589385</v>
+        <v>11.34446277734875</v>
       </c>
       <c r="L15">
-        <v>6.965358545924964</v>
+        <v>11.1762663134128</v>
       </c>
       <c r="M15">
-        <v>11.20167584848238</v>
+        <v>15.51706629370613</v>
       </c>
       <c r="N15">
-        <v>13.02916643590802</v>
+        <v>21.17618294082081</v>
       </c>
       <c r="O15">
-        <v>18.04150076125853</v>
+        <v>28.48588072958779</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.44778300126498</v>
+        <v>14.05640628794957</v>
       </c>
       <c r="C16">
-        <v>7.062134071645512</v>
+        <v>6.923322764841341</v>
       </c>
       <c r="D16">
-        <v>5.684337653946174</v>
+        <v>8.011717248785027</v>
       </c>
       <c r="E16">
-        <v>7.533947729581104</v>
+        <v>12.7822772826215</v>
       </c>
       <c r="F16">
-        <v>24.60551100702335</v>
+        <v>37.01505920267692</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>16.91574626168861</v>
+        <v>27.71969852637529</v>
       </c>
       <c r="J16">
-        <v>5.814208583823997</v>
+        <v>10.09436934809785</v>
       </c>
       <c r="K16">
-        <v>12.61559767336227</v>
+        <v>11.24556727913615</v>
       </c>
       <c r="L16">
-        <v>6.907738217731982</v>
+        <v>11.17759185006986</v>
       </c>
       <c r="M16">
-        <v>10.99607481513262</v>
+        <v>15.49241987841716</v>
       </c>
       <c r="N16">
-        <v>13.16234862786286</v>
+        <v>21.21294430666165</v>
       </c>
       <c r="O16">
-        <v>18.02248990188646</v>
+        <v>28.52631576793651</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.12234329776879</v>
+        <v>13.97239125124849</v>
       </c>
       <c r="C17">
-        <v>6.984604554276169</v>
+        <v>6.896557636724119</v>
       </c>
       <c r="D17">
-        <v>5.621688238956943</v>
+        <v>8.004975778280071</v>
       </c>
       <c r="E17">
-        <v>7.53065259769692</v>
+        <v>12.78936821045581</v>
       </c>
       <c r="F17">
-        <v>24.52251010752932</v>
+        <v>37.03832293529341</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>16.95238942952718</v>
+        <v>27.75018787189474</v>
       </c>
       <c r="J17">
-        <v>5.830750458907932</v>
+        <v>10.10022725146942</v>
       </c>
       <c r="K17">
-        <v>12.36829746641346</v>
+        <v>11.18485441608074</v>
       </c>
       <c r="L17">
-        <v>6.87281171340029</v>
+        <v>11.17871029005566</v>
       </c>
       <c r="M17">
-        <v>10.86898354588667</v>
+        <v>15.47776031418865</v>
       </c>
       <c r="N17">
-        <v>13.2446170368414</v>
+        <v>21.23593324688748</v>
       </c>
       <c r="O17">
-        <v>18.01456439185757</v>
+        <v>28.55234072949388</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.94253980796365</v>
+        <v>13.92403315777461</v>
       </c>
       <c r="C18">
-        <v>6.93963410851612</v>
+        <v>6.881061387108452</v>
       </c>
       <c r="D18">
-        <v>5.58551719634033</v>
+        <v>8.001190032024654</v>
       </c>
       <c r="E18">
-        <v>7.529013735205613</v>
+        <v>12.79356294045118</v>
       </c>
       <c r="F18">
-        <v>24.47650878097547</v>
+        <v>37.05234528727048</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>16.97459404465291</v>
+        <v>27.76811560652772</v>
       </c>
       <c r="J18">
-        <v>5.84034170240856</v>
+        <v>10.10364502597965</v>
       </c>
       <c r="K18">
-        <v>12.22389643099881</v>
+        <v>11.14992886947713</v>
       </c>
       <c r="L18">
-        <v>6.852881429019916</v>
+        <v>11.17946605948128</v>
       </c>
       <c r="M18">
-        <v>10.79555265285785</v>
+        <v>15.46949931984704</v>
       </c>
       <c r="N18">
-        <v>13.29215072617064</v>
+        <v>21.24931682941508</v>
       </c>
       <c r="O18">
-        <v>18.01134886961226</v>
+        <v>28.56775762758424</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.88286198479163</v>
+        <v>13.90765547971417</v>
       </c>
       <c r="C19">
-        <v>6.924343647282353</v>
+        <v>6.875797352974875</v>
       </c>
       <c r="D19">
-        <v>5.573247934703748</v>
+        <v>7.999924079151216</v>
       </c>
       <c r="E19">
-        <v>7.528502652653255</v>
+        <v>12.79500318044441</v>
       </c>
       <c r="F19">
-        <v>24.46123006763099</v>
+        <v>37.05720321614363</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>16.98230321735007</v>
+        <v>27.77425280244972</v>
       </c>
       <c r="J19">
-        <v>5.843602407723838</v>
+        <v>10.10481055901984</v>
       </c>
       <c r="K19">
-        <v>12.17463319551672</v>
+        <v>11.13810384608529</v>
       </c>
       <c r="L19">
-        <v>6.846160937871429</v>
+        <v>11.17974129408717</v>
       </c>
       <c r="M19">
-        <v>10.77063548080451</v>
+        <v>15.46673178010916</v>
       </c>
       <c r="N19">
-        <v>13.30828243262933</v>
+        <v>21.25387595693277</v>
       </c>
       <c r="O19">
-        <v>18.01048793971781</v>
+        <v>28.57305446480745</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.15729347227736</v>
+        <v>13.98133876667085</v>
       </c>
       <c r="C20">
-        <v>6.99289691524245</v>
+        <v>6.899417396178317</v>
       </c>
       <c r="D20">
-        <v>5.628371793674272</v>
+        <v>8.005683939303104</v>
       </c>
       <c r="E20">
-        <v>7.530976777854348</v>
+        <v>12.78860134506559</v>
       </c>
       <c r="F20">
-        <v>24.53116527107573</v>
+        <v>37.03578005978257</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>16.94837125917709</v>
+        <v>27.74690175631223</v>
       </c>
       <c r="J20">
-        <v>5.828981620539373</v>
+        <v>10.09959865417157</v>
       </c>
       <c r="K20">
-        <v>12.39484648687707</v>
+        <v>11.1913181811717</v>
       </c>
       <c r="L20">
-        <v>6.876513373267739</v>
+        <v>11.17857959615897</v>
       </c>
       <c r="M20">
-        <v>10.88254743485194</v>
+        <v>15.47930321000909</v>
       </c>
       <c r="N20">
-        <v>13.23583732632731</v>
+        <v>21.23346938478398</v>
       </c>
       <c r="O20">
-        <v>18.01526839482451</v>
+        <v>28.54952395654731</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.0962934055854</v>
+        <v>14.22837601520001</v>
       </c>
       <c r="C21">
-        <v>7.218674912058424</v>
+        <v>6.977549088394476</v>
       </c>
       <c r="D21">
-        <v>5.811866919597223</v>
+        <v>8.026127114535281</v>
       </c>
       <c r="E21">
-        <v>7.542370060227984</v>
+        <v>12.76847936803346</v>
       </c>
       <c r="F21">
-        <v>24.78705769472717</v>
+        <v>36.97146792902772</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>16.84805357297112</v>
+        <v>27.65967794456624</v>
       </c>
       <c r="J21">
-        <v>5.780768878224077</v>
+        <v>10.08266568703592</v>
       </c>
       <c r="K21">
-        <v>13.1089574825711</v>
+        <v>11.36997330270619</v>
       </c>
       <c r="L21">
-        <v>6.980362464673363</v>
+        <v>11.17601822295706</v>
       </c>
       <c r="M21">
-        <v>11.25444345294762</v>
+        <v>15.52357040712995</v>
       </c>
       <c r="N21">
-        <v>12.99495016523286</v>
+        <v>21.16682671262595</v>
       </c>
       <c r="O21">
-        <v>18.04758907091002</v>
+        <v>28.47581824615069</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.68386842167537</v>
+        <v>14.38918264992794</v>
       </c>
       <c r="C22">
-        <v>7.362754224747893</v>
+        <v>7.027665811749991</v>
       </c>
       <c r="D22">
-        <v>5.930339788975726</v>
+        <v>8.040287901761909</v>
       </c>
       <c r="E22">
-        <v>7.552150985368381</v>
+        <v>12.75635969552676</v>
       </c>
       <c r="F22">
-        <v>24.97021590164225</v>
+        <v>36.93515036435798</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>16.79317323895208</v>
+        <v>27.60615315172125</v>
       </c>
       <c r="J22">
-        <v>5.749923242917173</v>
+        <v>10.07202842252148</v>
       </c>
       <c r="K22">
-        <v>13.55655285644518</v>
+        <v>11.48645862972198</v>
       </c>
       <c r="L22">
-        <v>7.049570186949603</v>
+        <v>11.17533955055038</v>
       </c>
       <c r="M22">
-        <v>11.49409750069431</v>
+        <v>15.55398647143798</v>
       </c>
       <c r="N22">
-        <v>12.83927407089111</v>
+        <v>21.12469785150505</v>
       </c>
       <c r="O22">
-        <v>18.0813163660094</v>
+        <v>28.4316386838943</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.37264404753565</v>
+        <v>14.3034322521626</v>
       </c>
       <c r="C23">
-        <v>7.286179847716108</v>
+        <v>7.001006193635146</v>
       </c>
       <c r="D23">
-        <v>5.867252082446804</v>
+        <v>8.0326576784929</v>
       </c>
       <c r="E23">
-        <v>7.546714606324485</v>
+        <v>12.76273401738352</v>
       </c>
       <c r="F23">
-        <v>24.87098434491605</v>
+        <v>36.95401092713415</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>16.82145483366196</v>
+        <v>27.634401895891</v>
       </c>
       <c r="J23">
-        <v>5.766326339701804</v>
+        <v>10.07766654349501</v>
       </c>
       <c r="K23">
-        <v>13.31940544367961</v>
+        <v>11.42432449167513</v>
       </c>
       <c r="L23">
-        <v>7.012514078434164</v>
+        <v>11.17561100710471</v>
       </c>
       <c r="M23">
-        <v>11.36652121823672</v>
+        <v>15.53761876566556</v>
       </c>
       <c r="N23">
-        <v>12.92220840153372</v>
+        <v>21.14705269092964</v>
       </c>
       <c r="O23">
-        <v>18.0621310231717</v>
+        <v>28.45485286244936</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.14150200049911</v>
+        <v>13.9772937678612</v>
       </c>
       <c r="C24">
-        <v>6.989149176181876</v>
+        <v>6.898124836808939</v>
       </c>
       <c r="D24">
-        <v>5.625350632644543</v>
+        <v>8.005363499140399</v>
       </c>
       <c r="E24">
-        <v>7.530829420586958</v>
+        <v>12.78894767712728</v>
       </c>
       <c r="F24">
-        <v>24.5272469285436</v>
+        <v>37.03692767620878</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>16.95018433639642</v>
+        <v>27.74838616628165</v>
       </c>
       <c r="J24">
-        <v>5.829781059544631</v>
+        <v>10.09988268727978</v>
       </c>
       <c r="K24">
-        <v>12.38285060589685</v>
+        <v>11.18839597551634</v>
       </c>
       <c r="L24">
-        <v>6.874839386569389</v>
+        <v>11.17863833155975</v>
       </c>
       <c r="M24">
-        <v>10.87641633056592</v>
+        <v>15.47860514627673</v>
       </c>
       <c r="N24">
-        <v>13.23980589513825</v>
+        <v>21.23458277676406</v>
       </c>
       <c r="O24">
-        <v>18.01494594544485</v>
+        <v>28.5507960029424</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.8154705063532</v>
+        <v>13.62437790100631</v>
       </c>
       <c r="C25">
-        <v>6.654421210935305</v>
+        <v>6.783289944600833</v>
       </c>
       <c r="D25">
-        <v>5.359363280105386</v>
+        <v>7.979439743449896</v>
       </c>
       <c r="E25">
-        <v>7.523466528488981</v>
+        <v>12.82166866513217</v>
       </c>
       <c r="F25">
-        <v>24.2226275516144</v>
+        <v>37.15089665406101</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>17.13184653779147</v>
+        <v>27.88628909951348</v>
       </c>
       <c r="J25">
-        <v>5.901174172786043</v>
+        <v>10.12570061094163</v>
       </c>
       <c r="K25">
-        <v>11.28998924100428</v>
+        <v>10.93385541514495</v>
       </c>
       <c r="L25">
-        <v>6.732438383749116</v>
+        <v>11.18620704500265</v>
       </c>
       <c r="M25">
-        <v>10.33542900184853</v>
+        <v>15.42149823581662</v>
       </c>
       <c r="N25">
-        <v>13.59069216151578</v>
+        <v>21.33515633216833</v>
       </c>
       <c r="O25">
-        <v>18.01501378409879</v>
+        <v>28.67141377487461</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_23/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.36538210713168</v>
+        <v>12.76766181985815</v>
       </c>
       <c r="C2">
-        <v>6.695632360840831</v>
+        <v>6.396420797607822</v>
       </c>
       <c r="D2">
-        <v>7.963456263971691</v>
+        <v>5.160588785553449</v>
       </c>
       <c r="E2">
-        <v>12.84960670177691</v>
+        <v>7.526161133734292</v>
       </c>
       <c r="F2">
-        <v>37.2558986646689</v>
+        <v>24.05246289476332</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
-        <v>28.00070937863678</v>
+        <v>17.29925004348606</v>
       </c>
       <c r="J2">
-        <v>10.14632020270577</v>
+        <v>5.956386531897392</v>
       </c>
       <c r="K2">
-        <v>10.74762511573978</v>
+        <v>10.41370882194146</v>
       </c>
       <c r="L2">
-        <v>11.19551048030361</v>
+        <v>6.633205048983933</v>
       </c>
       <c r="M2">
-        <v>15.38524925947977</v>
+        <v>9.929290740952952</v>
       </c>
       <c r="N2">
-        <v>21.41455861298651</v>
+        <v>13.85703194162384</v>
       </c>
       <c r="O2">
-        <v>28.77495283335057</v>
+        <v>18.05539962713939</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.19134087224912</v>
+        <v>12.01153350180707</v>
       </c>
       <c r="C3">
-        <v>6.63440299520056</v>
+        <v>6.214878383612201</v>
       </c>
       <c r="D3">
-        <v>7.954597282926129</v>
+        <v>5.024871418618746</v>
       </c>
       <c r="E3">
-        <v>12.87095082194841</v>
+        <v>7.53290290692351</v>
       </c>
       <c r="F3">
-        <v>37.34020316456299</v>
+        <v>23.96933792817791</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>28.08630121466497</v>
+        <v>17.43220816540551</v>
       </c>
       <c r="J3">
-        <v>10.16130629157166</v>
+        <v>5.995508339153537</v>
       </c>
       <c r="K3">
-        <v>10.62279215314734</v>
+        <v>9.775074768322982</v>
       </c>
       <c r="L3">
-        <v>11.20415672931719</v>
+        <v>6.56963233620335</v>
       </c>
       <c r="M3">
-        <v>15.36437822379475</v>
+        <v>9.650820295800045</v>
       </c>
       <c r="N3">
-        <v>21.47173500941634</v>
+        <v>14.04290525143979</v>
       </c>
       <c r="O3">
-        <v>28.85430788210178</v>
+        <v>18.10618147424347</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.08553309970793</v>
+        <v>11.5252851776852</v>
       </c>
       <c r="C4">
-        <v>6.5959484876531</v>
+        <v>6.100312969472427</v>
       </c>
       <c r="D4">
-        <v>7.950142678483319</v>
+        <v>4.941347138364432</v>
       </c>
       <c r="E4">
-        <v>12.88524882360595</v>
+        <v>7.539417727423131</v>
       </c>
       <c r="F4">
-        <v>37.39844483412975</v>
+        <v>23.9336117858525</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>28.14282860660875</v>
+        <v>17.52300605879894</v>
       </c>
       <c r="J4">
-        <v>10.17100951227424</v>
+        <v>6.020386592255926</v>
       </c>
       <c r="K4">
-        <v>10.54703833805129</v>
+        <v>9.360904194380662</v>
       </c>
       <c r="L4">
-        <v>11.21062491242877</v>
+        <v>6.532467103235892</v>
       </c>
       <c r="M4">
-        <v>15.35341062579728</v>
+        <v>9.478864001530424</v>
       </c>
       <c r="N4">
-        <v>21.50851003005467</v>
+        <v>14.15980368768299</v>
       </c>
       <c r="O4">
-        <v>28.90756208757614</v>
+        <v>18.14833451581064</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.04272982242564</v>
+        <v>11.32174849906417</v>
       </c>
       <c r="C5">
-        <v>6.580068127104913</v>
+        <v>6.052882425524197</v>
       </c>
       <c r="D5">
-        <v>7.948576769788035</v>
+        <v>4.907310187911929</v>
       </c>
       <c r="E5">
-        <v>12.89137582665014</v>
+        <v>7.542662574970222</v>
       </c>
       <c r="F5">
-        <v>37.42380704983344</v>
+        <v>23.92281501078958</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>28.16686369523497</v>
+        <v>17.56224508523331</v>
       </c>
       <c r="J5">
-        <v>10.17509016190045</v>
+        <v>6.030742603130736</v>
       </c>
       <c r="K5">
-        <v>10.51642546351303</v>
+        <v>9.186598507829057</v>
       </c>
       <c r="L5">
-        <v>11.21355297384097</v>
+        <v>6.517799612626598</v>
       </c>
       <c r="M5">
-        <v>15.3494094466843</v>
+        <v>9.408645285784058</v>
       </c>
       <c r="N5">
-        <v>21.5239168964713</v>
+        <v>14.20815445935842</v>
       </c>
       <c r="O5">
-        <v>28.93040249528794</v>
+        <v>18.16818695117622</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.03564277974939</v>
+        <v>11.28763085634493</v>
       </c>
       <c r="C6">
-        <v>6.577418716601017</v>
+        <v>6.044962751091239</v>
       </c>
       <c r="D6">
-        <v>7.948331862024374</v>
+        <v>4.901659825504048</v>
       </c>
       <c r="E6">
-        <v>12.89241137357056</v>
+        <v>7.543236799560472</v>
       </c>
       <c r="F6">
-        <v>37.42811674349814</v>
+        <v>23.92124674363131</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>28.17091509896891</v>
+        <v>17.56889401802834</v>
       </c>
       <c r="J6">
-        <v>10.17577540180908</v>
+        <v>6.032475440276908</v>
       </c>
       <c r="K6">
-        <v>10.51135871092026</v>
+        <v>9.157321981256922</v>
       </c>
       <c r="L6">
-        <v>11.21405684551831</v>
+        <v>6.515393145231858</v>
       </c>
       <c r="M6">
-        <v>15.34877343558625</v>
+        <v>9.396979775457398</v>
       </c>
       <c r="N6">
-        <v>21.52650064211401</v>
+        <v>14.21622665392184</v>
       </c>
       <c r="O6">
-        <v>28.93426390737418</v>
+        <v>18.17164252999057</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.084954502695</v>
+        <v>11.52256180927875</v>
       </c>
       <c r="C7">
-        <v>6.595735160830602</v>
+        <v>6.099676269541849</v>
       </c>
       <c r="D7">
-        <v>7.950120548157551</v>
+        <v>4.94088803915018</v>
       </c>
       <c r="E7">
-        <v>12.88533023725611</v>
+        <v>7.539459109341514</v>
       </c>
       <c r="F7">
-        <v>37.39878028621649</v>
+        <v>23.93345106537404</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>28.14314870372099</v>
+        <v>17.52352627211099</v>
       </c>
       <c r="J7">
-        <v>10.17106403264567</v>
+        <v>6.020525371617556</v>
       </c>
       <c r="K7">
-        <v>10.54662439708293</v>
+        <v>9.358575800530872</v>
       </c>
       <c r="L7">
-        <v>11.21066321718566</v>
+        <v>6.532267348744135</v>
       </c>
       <c r="M7">
-        <v>15.35335476404914</v>
+        <v>9.477917459206045</v>
       </c>
       <c r="N7">
-        <v>21.50871610727053</v>
+        <v>14.16045285152495</v>
       </c>
       <c r="O7">
-        <v>28.90786551027012</v>
+        <v>18.14859153364267</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.30518345375274</v>
+        <v>12.51158581307323</v>
       </c>
       <c r="C8">
-        <v>6.674702583014734</v>
+        <v>6.33448766766691</v>
       </c>
       <c r="D8">
-        <v>7.960198353692478</v>
+        <v>5.113861973891056</v>
       </c>
       <c r="E8">
-        <v>12.85671896027818</v>
+        <v>7.527988324871412</v>
       </c>
       <c r="F8">
-        <v>37.28362185379828</v>
+        <v>24.02057133877808</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>28.02939701832913</v>
+        <v>17.34315228947056</v>
       </c>
       <c r="J8">
-        <v>10.15138348991171</v>
+        <v>5.969699230315719</v>
       </c>
       <c r="K8">
-        <v>10.70441678833006</v>
+        <v>10.19809017954477</v>
       </c>
       <c r="L8">
-        <v>11.19825151000541</v>
+        <v>6.610902227510923</v>
       </c>
       <c r="M8">
-        <v>15.37767179600851</v>
+        <v>9.833534582031147</v>
       </c>
       <c r="N8">
-        <v>21.43392746270413</v>
+        <v>13.9205561774883</v>
       </c>
       <c r="O8">
-        <v>28.80137417392836</v>
+        <v>18.07058069629861</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.74324987089823</v>
+        <v>14.27199750074743</v>
       </c>
       <c r="C9">
-        <v>6.822469423968107</v>
+        <v>6.769027043141556</v>
       </c>
       <c r="D9">
-        <v>7.98769514940862</v>
+        <v>5.449518424950014</v>
       </c>
       <c r="E9">
-        <v>12.81005065813147</v>
+        <v>7.524666618958927</v>
       </c>
       <c r="F9">
-        <v>37.10922935887059</v>
+        <v>24.31663554334231</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>27.83783657662011</v>
+        <v>17.06522159885334</v>
       </c>
       <c r="J9">
-        <v>10.11675472726563</v>
+        <v>5.876721536781275</v>
       </c>
       <c r="K9">
-        <v>11.01949735549793</v>
+        <v>11.66921860727305</v>
       </c>
       <c r="L9">
-        <v>11.18307993518444</v>
+        <v>6.779558311420121</v>
       </c>
       <c r="M9">
-        <v>15.43984487921815</v>
+        <v>10.51907692968288</v>
       </c>
       <c r="N9">
-        <v>21.300450429858</v>
+        <v>13.47130951466321</v>
       </c>
       <c r="O9">
-        <v>28.62849532349906</v>
+        <v>18.0084914894811</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.06598710138387</v>
+        <v>15.48451713918385</v>
       </c>
       <c r="C10">
-        <v>6.926362933717296</v>
+        <v>7.070929133399091</v>
       </c>
       <c r="D10">
-        <v>8.012498875186253</v>
+        <v>5.691467018458424</v>
       </c>
       <c r="E10">
-        <v>12.78148389353998</v>
+        <v>7.534358647336457</v>
       </c>
       <c r="F10">
-        <v>37.01249160027587</v>
+        <v>24.61521911983057</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>27.71627246617023</v>
+        <v>16.91172003971813</v>
       </c>
       <c r="J10">
-        <v>10.09370748013383</v>
+        <v>5.812331380842513</v>
       </c>
       <c r="K10">
-        <v>11.25249355141858</v>
+        <v>12.64352396347878</v>
       </c>
       <c r="L10">
-        <v>11.17747944793943</v>
+        <v>6.911744797952085</v>
       </c>
       <c r="M10">
-        <v>15.49411566024001</v>
+        <v>11.01053028693285</v>
       </c>
       <c r="N10">
-        <v>21.21034289319119</v>
+        <v>13.15298985101601</v>
       </c>
       <c r="O10">
-        <v>28.52340685459264</v>
+        <v>18.02357843786261</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.21240084361246</v>
+        <v>16.03697421272013</v>
       </c>
       <c r="C11">
-        <v>6.972540807652503</v>
+        <v>7.204245945042907</v>
       </c>
       <c r="D11">
-        <v>8.024755523230203</v>
+        <v>5.800057824694854</v>
       </c>
       <c r="E11">
-        <v>12.76972308288734</v>
+        <v>7.54149651465372</v>
       </c>
       <c r="F11">
-        <v>36.97530221019585</v>
+        <v>24.76955502124238</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>27.66512701488289</v>
+        <v>16.85394151429091</v>
       </c>
       <c r="J11">
-        <v>10.08373785829166</v>
+        <v>5.783853972077122</v>
       </c>
       <c r="K11">
-        <v>11.35840922530276</v>
+        <v>13.06380042591136</v>
       </c>
       <c r="L11">
-        <v>11.17612608431016</v>
+        <v>6.973554125484097</v>
       </c>
       <c r="M11">
-        <v>15.52061483275128</v>
+        <v>11.23053669657318</v>
       </c>
       <c r="N11">
-        <v>21.17106183898331</v>
+        <v>13.01045434301696</v>
       </c>
       <c r="O11">
-        <v>28.48036166203178</v>
+        <v>18.04477021035957</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.26773739768695</v>
+        <v>16.24169375407645</v>
       </c>
       <c r="C12">
-        <v>6.9898653895001</v>
+        <v>7.254134181500585</v>
       </c>
       <c r="D12">
-        <v>8.029534310907994</v>
+        <v>5.840932095774262</v>
       </c>
       <c r="E12">
-        <v>12.76544647895789</v>
+        <v>7.544599430718042</v>
       </c>
       <c r="F12">
-        <v>36.96219975117214</v>
+        <v>24.83072501731444</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>27.64635657077955</v>
+        <v>16.83388699670597</v>
       </c>
       <c r="J12">
-        <v>10.08003627420852</v>
+        <v>5.773184384751928</v>
       </c>
       <c r="K12">
-        <v>11.39847242479209</v>
+        <v>13.21966836312641</v>
       </c>
       <c r="L12">
-        <v>11.17578443414197</v>
+        <v>6.997190112194267</v>
       </c>
       <c r="M12">
-        <v>15.53090469009545</v>
+        <v>11.31326924436945</v>
       </c>
       <c r="N12">
-        <v>21.15643168496027</v>
+        <v>12.95678275599667</v>
       </c>
       <c r="O12">
-        <v>28.46474614007373</v>
+        <v>18.05494991549171</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.25582521921544</v>
+        <v>16.19780248499689</v>
       </c>
       <c r="C13">
-        <v>6.986141530668742</v>
+        <v>7.243416612374907</v>
       </c>
       <c r="D13">
-        <v>8.028499040854218</v>
+        <v>5.832140582357737</v>
       </c>
       <c r="E13">
-        <v>12.76635966044616</v>
+        <v>7.543913254085092</v>
       </c>
       <c r="F13">
-        <v>36.96497799998614</v>
+        <v>24.81742873205064</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>27.65037256314137</v>
+        <v>16.83812341699073</v>
       </c>
       <c r="J13">
-        <v>10.08083020394998</v>
+        <v>5.775477239379589</v>
       </c>
       <c r="K13">
-        <v>11.38984662116082</v>
+        <v>13.18624505426446</v>
       </c>
       <c r="L13">
-        <v>11.17585043133108</v>
+        <v>6.992089619503074</v>
       </c>
       <c r="M13">
-        <v>15.52867732109574</v>
+        <v>11.29547806025376</v>
       </c>
       <c r="N13">
-        <v>21.15957168292993</v>
+        <v>12.96832877124866</v>
       </c>
       <c r="O13">
-        <v>28.4680787636655</v>
+        <v>18.05266019301531</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.21695584116628</v>
+        <v>16.05390623423826</v>
       </c>
       <c r="C14">
-        <v>6.97396939222093</v>
+        <v>7.208362314864026</v>
       </c>
       <c r="D14">
-        <v>8.025145936759372</v>
+        <v>5.803425707897744</v>
       </c>
       <c r="E14">
-        <v>12.76936770067804</v>
+        <v>7.541743734520499</v>
       </c>
       <c r="F14">
-        <v>36.97420461566006</v>
+        <v>24.7745325207556</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>27.6635707909805</v>
+        <v>16.85225449896927</v>
       </c>
       <c r="J14">
-        <v>10.08343185157557</v>
+        <v>5.782973906947441</v>
       </c>
       <c r="K14">
-        <v>11.36170633769741</v>
+        <v>13.07668943276062</v>
       </c>
       <c r="L14">
-        <v>11.17609455799589</v>
+        <v>6.975494123158358</v>
       </c>
       <c r="M14">
-        <v>15.52145630180559</v>
+        <v>11.23735511896083</v>
       </c>
       <c r="N14">
-        <v>21.16985330876407</v>
+        <v>13.0060328018039</v>
       </c>
       <c r="O14">
-        <v>28.47906323873746</v>
+        <v>18.04556397366418</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.19313182554006</v>
+        <v>15.965182942256</v>
       </c>
       <c r="C15">
-        <v>6.966492332625799</v>
+        <v>7.186812460159008</v>
       </c>
       <c r="D15">
-        <v>8.023109889071533</v>
+        <v>5.78580391107547</v>
       </c>
       <c r="E15">
-        <v>12.77123324146979</v>
+        <v>7.5404671511695</v>
       </c>
       <c r="F15">
-        <v>36.97998385345252</v>
+        <v>24.74861423826311</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>27.67173285727855</v>
+        <v>16.8611506668253</v>
       </c>
       <c r="J15">
-        <v>10.08503502385116</v>
+        <v>5.787580616402531</v>
       </c>
       <c r="K15">
-        <v>11.34446277734875</v>
+        <v>13.00915665589385</v>
       </c>
       <c r="L15">
-        <v>11.1762663134128</v>
+        <v>6.965358545924988</v>
       </c>
       <c r="M15">
-        <v>15.51706629370613</v>
+        <v>11.20167584848241</v>
       </c>
       <c r="N15">
-        <v>21.17618294082081</v>
+        <v>13.02916643590799</v>
       </c>
       <c r="O15">
-        <v>28.48588072958779</v>
+        <v>18.04150076125855</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.05640628794957</v>
+        <v>15.44778300126503</v>
       </c>
       <c r="C16">
-        <v>6.923322764841341</v>
+        <v>7.062134071645594</v>
       </c>
       <c r="D16">
-        <v>8.011717248785027</v>
+        <v>5.684337653946099</v>
       </c>
       <c r="E16">
-        <v>12.7822772826215</v>
+        <v>7.533947729581052</v>
       </c>
       <c r="F16">
-        <v>37.01505920267692</v>
+        <v>24.60551100702322</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>27.71969852637529</v>
+        <v>16.91574626168853</v>
       </c>
       <c r="J16">
-        <v>10.09436934809785</v>
+        <v>5.814208583823998</v>
       </c>
       <c r="K16">
-        <v>11.24556727913615</v>
+        <v>12.61559767336231</v>
       </c>
       <c r="L16">
-        <v>11.17759185006986</v>
+        <v>6.90773821773194</v>
       </c>
       <c r="M16">
-        <v>15.49241987841716</v>
+        <v>10.9960748151326</v>
       </c>
       <c r="N16">
-        <v>21.21294430666165</v>
+        <v>13.16234862786283</v>
       </c>
       <c r="O16">
-        <v>28.52631576793651</v>
+        <v>18.02248990188637</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.97239125124849</v>
+        <v>15.12234329776879</v>
       </c>
       <c r="C17">
-        <v>6.896557636724119</v>
+        <v>6.984604554275939</v>
       </c>
       <c r="D17">
-        <v>8.004975778280071</v>
+        <v>5.621688238956927</v>
       </c>
       <c r="E17">
-        <v>12.78936821045581</v>
+        <v>7.53065259769681</v>
       </c>
       <c r="F17">
-        <v>37.03832293529341</v>
+        <v>24.52251010752952</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>27.75018787189474</v>
+        <v>16.95238942952728</v>
       </c>
       <c r="J17">
-        <v>10.10022725146942</v>
+        <v>5.830750458907968</v>
       </c>
       <c r="K17">
-        <v>11.18485441608074</v>
+        <v>12.36829746641343</v>
       </c>
       <c r="L17">
-        <v>11.17871029005566</v>
+        <v>6.872811713400289</v>
       </c>
       <c r="M17">
-        <v>15.47776031418865</v>
+        <v>10.86898354588669</v>
       </c>
       <c r="N17">
-        <v>21.23593324688748</v>
+        <v>13.24461703684147</v>
       </c>
       <c r="O17">
-        <v>28.55234072949388</v>
+        <v>18.0145643918577</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.92403315777461</v>
+        <v>14.94253980796367</v>
       </c>
       <c r="C18">
-        <v>6.881061387108452</v>
+        <v>6.939634108516099</v>
       </c>
       <c r="D18">
-        <v>8.001190032024654</v>
+        <v>5.585517196340324</v>
       </c>
       <c r="E18">
-        <v>12.79356294045118</v>
+        <v>7.529013735205664</v>
       </c>
       <c r="F18">
-        <v>37.05234528727048</v>
+        <v>24.47650878097563</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>27.76811560652772</v>
+        <v>16.97459404465311</v>
       </c>
       <c r="J18">
-        <v>10.10364502597965</v>
+        <v>5.840341702408527</v>
       </c>
       <c r="K18">
-        <v>11.14992886947713</v>
+        <v>12.22389643099875</v>
       </c>
       <c r="L18">
-        <v>11.17946605948128</v>
+        <v>6.852881429019907</v>
       </c>
       <c r="M18">
-        <v>15.46949931984704</v>
+        <v>10.7955526528579</v>
       </c>
       <c r="N18">
-        <v>21.24931682941508</v>
+        <v>13.2921507261707</v>
       </c>
       <c r="O18">
-        <v>28.56775762758424</v>
+        <v>18.01134886961241</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.90765547971417</v>
+        <v>14.88286198479162</v>
       </c>
       <c r="C19">
-        <v>6.875797352974875</v>
+        <v>6.924343647282469</v>
       </c>
       <c r="D19">
-        <v>7.999924079151216</v>
+        <v>5.573247934703834</v>
       </c>
       <c r="E19">
-        <v>12.79500318044441</v>
+        <v>7.528502652653317</v>
       </c>
       <c r="F19">
-        <v>37.05720321614363</v>
+        <v>24.46123006763108</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>27.77425280244972</v>
+        <v>16.98230321735012</v>
       </c>
       <c r="J19">
-        <v>10.10481055901984</v>
+        <v>5.843602407723837</v>
       </c>
       <c r="K19">
-        <v>11.13810384608529</v>
+        <v>12.17463319551672</v>
       </c>
       <c r="L19">
-        <v>11.17974129408717</v>
+        <v>6.846160937871414</v>
       </c>
       <c r="M19">
-        <v>15.46673178010916</v>
+        <v>10.77063548080453</v>
       </c>
       <c r="N19">
-        <v>21.25387595693277</v>
+        <v>13.30828243262933</v>
       </c>
       <c r="O19">
-        <v>28.57305446480745</v>
+        <v>18.01048793971784</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.98133876667085</v>
+        <v>15.15729347227732</v>
       </c>
       <c r="C20">
-        <v>6.899417396178317</v>
+        <v>6.992896915242458</v>
       </c>
       <c r="D20">
-        <v>8.005683939303104</v>
+        <v>5.628371793674332</v>
       </c>
       <c r="E20">
-        <v>12.78860134506559</v>
+        <v>7.5309767778544</v>
       </c>
       <c r="F20">
-        <v>37.03578005978257</v>
+        <v>24.53116527107593</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>27.74690175631223</v>
+        <v>16.9483712591773</v>
       </c>
       <c r="J20">
-        <v>10.09959865417157</v>
+        <v>5.828981620539439</v>
       </c>
       <c r="K20">
-        <v>11.1913181811717</v>
+        <v>12.39484648687703</v>
       </c>
       <c r="L20">
-        <v>11.17857959615897</v>
+        <v>6.876513373267774</v>
       </c>
       <c r="M20">
-        <v>15.47930321000909</v>
+        <v>10.88254743485195</v>
       </c>
       <c r="N20">
-        <v>21.23346938478398</v>
+        <v>13.23583732632748</v>
       </c>
       <c r="O20">
-        <v>28.54952395654731</v>
+        <v>18.0152683948247</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.22837601520001</v>
+        <v>16.0962934055854</v>
       </c>
       <c r="C21">
-        <v>6.977549088394476</v>
+        <v>7.218674912058344</v>
       </c>
       <c r="D21">
-        <v>8.026127114535281</v>
+        <v>5.811866919597137</v>
       </c>
       <c r="E21">
-        <v>12.76847936803346</v>
+        <v>7.542370060227865</v>
       </c>
       <c r="F21">
-        <v>36.97146792902772</v>
+        <v>24.78705769472716</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>27.65967794456624</v>
+        <v>16.84805357297109</v>
       </c>
       <c r="J21">
-        <v>10.08266568703592</v>
+        <v>5.780768878224011</v>
       </c>
       <c r="K21">
-        <v>11.36997330270619</v>
+        <v>13.10895748257108</v>
       </c>
       <c r="L21">
-        <v>11.17601822295706</v>
+        <v>6.980362464673344</v>
       </c>
       <c r="M21">
-        <v>15.52357040712995</v>
+        <v>11.25444345294761</v>
       </c>
       <c r="N21">
-        <v>21.16682671262595</v>
+        <v>12.99495016523283</v>
       </c>
       <c r="O21">
-        <v>28.47581824615069</v>
+        <v>18.04758907091005</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.38918264992794</v>
+        <v>16.68386842167539</v>
       </c>
       <c r="C22">
-        <v>7.027665811749991</v>
+        <v>7.362754224747984</v>
       </c>
       <c r="D22">
-        <v>8.040287901761909</v>
+        <v>5.930339788975704</v>
       </c>
       <c r="E22">
-        <v>12.75635969552676</v>
+        <v>7.552150985368431</v>
       </c>
       <c r="F22">
-        <v>36.93515036435798</v>
+        <v>24.97021590164228</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>27.60615315172125</v>
+        <v>16.79317323895216</v>
       </c>
       <c r="J22">
-        <v>10.07202842252148</v>
+        <v>5.749923242917208</v>
       </c>
       <c r="K22">
-        <v>11.48645862972198</v>
+        <v>13.55655285644521</v>
       </c>
       <c r="L22">
-        <v>11.17533955055038</v>
+        <v>7.049570186949593</v>
       </c>
       <c r="M22">
-        <v>15.55398647143798</v>
+        <v>11.49409750069431</v>
       </c>
       <c r="N22">
-        <v>21.12469785150505</v>
+        <v>12.83927407089111</v>
       </c>
       <c r="O22">
-        <v>28.4316386838943</v>
+        <v>18.08131636600942</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.3034322521626</v>
+        <v>16.37264404753559</v>
       </c>
       <c r="C23">
-        <v>7.001006193635146</v>
+        <v>7.286179847716314</v>
       </c>
       <c r="D23">
-        <v>8.0326576784929</v>
+        <v>5.867252082446711</v>
       </c>
       <c r="E23">
-        <v>12.76273401738352</v>
+        <v>7.546714606324426</v>
       </c>
       <c r="F23">
-        <v>36.95401092713415</v>
+        <v>24.87098434491617</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>27.634401895891</v>
+        <v>16.82145483366214</v>
       </c>
       <c r="J23">
-        <v>10.07766654349501</v>
+        <v>5.766326339701839</v>
       </c>
       <c r="K23">
-        <v>11.42432449167513</v>
+        <v>13.31940544367959</v>
       </c>
       <c r="L23">
-        <v>11.17561100710471</v>
+        <v>7.012514078434073</v>
       </c>
       <c r="M23">
-        <v>15.53761876566556</v>
+        <v>11.36652121823672</v>
       </c>
       <c r="N23">
-        <v>21.14705269092964</v>
+        <v>12.92220840153385</v>
       </c>
       <c r="O23">
-        <v>28.45485286244936</v>
+        <v>18.06213102317184</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.9772937678612</v>
+        <v>15.14150200049907</v>
       </c>
       <c r="C24">
-        <v>6.898124836808939</v>
+        <v>6.98914917618218</v>
       </c>
       <c r="D24">
-        <v>8.005363499140399</v>
+        <v>5.62535063264459</v>
       </c>
       <c r="E24">
-        <v>12.78894767712728</v>
+        <v>7.530829420587024</v>
       </c>
       <c r="F24">
-        <v>37.03692767620878</v>
+        <v>24.5272469285437</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>27.74838616628165</v>
+        <v>16.95018433639654</v>
       </c>
       <c r="J24">
-        <v>10.09988268727978</v>
+        <v>5.829781059544633</v>
       </c>
       <c r="K24">
-        <v>11.18839597551634</v>
+        <v>12.38285060589681</v>
       </c>
       <c r="L24">
-        <v>11.17863833155975</v>
+        <v>6.874839386569333</v>
       </c>
       <c r="M24">
-        <v>15.47860514627673</v>
+        <v>10.87641633056596</v>
       </c>
       <c r="N24">
-        <v>21.23458277676406</v>
+        <v>13.23980589513825</v>
       </c>
       <c r="O24">
-        <v>28.5507960029424</v>
+        <v>18.01494594544491</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.62437790100631</v>
+        <v>13.81547050635321</v>
       </c>
       <c r="C25">
-        <v>6.783289944600833</v>
+        <v>6.654421210935412</v>
       </c>
       <c r="D25">
-        <v>7.979439743449896</v>
+        <v>5.359363280105297</v>
       </c>
       <c r="E25">
-        <v>12.82166866513217</v>
+        <v>7.523466528488922</v>
       </c>
       <c r="F25">
-        <v>37.15089665406101</v>
+        <v>24.22262755161418</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>27.88628909951348</v>
+        <v>17.13184653779135</v>
       </c>
       <c r="J25">
-        <v>10.12570061094163</v>
+        <v>5.90117417278594</v>
       </c>
       <c r="K25">
-        <v>10.93385541514495</v>
+        <v>11.2899892410043</v>
       </c>
       <c r="L25">
-        <v>11.18620704500265</v>
+        <v>6.732438383748987</v>
       </c>
       <c r="M25">
-        <v>15.42149823581662</v>
+        <v>10.33542900184848</v>
       </c>
       <c r="N25">
-        <v>21.33515633216833</v>
+        <v>13.59069216151568</v>
       </c>
       <c r="O25">
-        <v>28.67141377487461</v>
+        <v>18.01501378409863</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_23/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.76766181985815</v>
+        <v>12.05735779978119</v>
       </c>
       <c r="C2">
-        <v>6.396420797607822</v>
+        <v>7.328319514279056</v>
       </c>
       <c r="D2">
-        <v>5.160588785553449</v>
+        <v>2.871143134476786</v>
       </c>
       <c r="E2">
-        <v>7.526161133734292</v>
+        <v>4.566619625407872</v>
       </c>
       <c r="F2">
-        <v>24.05246289476332</v>
+        <v>45.66432358570563</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>5.357372993093882</v>
       </c>
       <c r="I2">
-        <v>17.29925004348606</v>
+        <v>5.821762325315486</v>
       </c>
       <c r="J2">
-        <v>5.956386531897392</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K2">
-        <v>10.41370882194146</v>
+        <v>32.35461653243606</v>
       </c>
       <c r="L2">
-        <v>6.633205048983933</v>
+        <v>5.631150865182077</v>
       </c>
       <c r="M2">
-        <v>9.929290740952952</v>
+        <v>10.89930414461615</v>
       </c>
       <c r="N2">
-        <v>13.85703194162384</v>
+        <v>5.931930286168567</v>
       </c>
       <c r="O2">
-        <v>18.05539962713939</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>9.442064583039389</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.01153350180707</v>
+        <v>11.37084792666138</v>
       </c>
       <c r="C3">
-        <v>6.214878383612201</v>
+        <v>6.874828310091317</v>
       </c>
       <c r="D3">
-        <v>5.024871418618746</v>
+        <v>2.873149682022397</v>
       </c>
       <c r="E3">
-        <v>7.53290290692351</v>
+        <v>4.440050657730857</v>
       </c>
       <c r="F3">
-        <v>23.96933792817791</v>
+        <v>44.2211468546592</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>5.631364963482971</v>
       </c>
       <c r="I3">
-        <v>17.43220816540551</v>
+        <v>6.05432266116703</v>
       </c>
       <c r="J3">
-        <v>5.995508339153537</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>9.775074768322982</v>
+        <v>31.48872146475244</v>
       </c>
       <c r="L3">
-        <v>6.56963233620335</v>
+        <v>5.537496247308535</v>
       </c>
       <c r="M3">
-        <v>9.650820295800045</v>
+        <v>10.36323399417173</v>
       </c>
       <c r="N3">
-        <v>14.04290525143979</v>
+        <v>5.801843218191771</v>
       </c>
       <c r="O3">
-        <v>18.10618147424347</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>9.15467742897232</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.5252851776852</v>
+        <v>10.93021806814126</v>
       </c>
       <c r="C4">
-        <v>6.100312969472427</v>
+        <v>6.601840624496629</v>
       </c>
       <c r="D4">
-        <v>4.941347138364432</v>
+        <v>2.872842947562452</v>
       </c>
       <c r="E4">
-        <v>7.539417727423131</v>
+        <v>4.360299034982256</v>
       </c>
       <c r="F4">
-        <v>23.9336117858525</v>
+        <v>43.30579064231554</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>5.805265147562082</v>
       </c>
       <c r="I4">
-        <v>17.52300605879894</v>
+        <v>6.202376781010891</v>
       </c>
       <c r="J4">
-        <v>6.020386592255926</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>9.360904194380662</v>
+        <v>30.93867500794576</v>
       </c>
       <c r="L4">
-        <v>6.532467103235892</v>
+        <v>5.477767423275752</v>
       </c>
       <c r="M4">
-        <v>9.478864001530424</v>
+        <v>10.02438945266361</v>
       </c>
       <c r="N4">
-        <v>14.15980368768299</v>
+        <v>5.721362987867627</v>
       </c>
       <c r="O4">
-        <v>18.14833451581064</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>8.975760237176654</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.32174849906417</v>
+        <v>10.74499569798071</v>
       </c>
       <c r="C5">
-        <v>6.052882425524197</v>
+        <v>6.49527717955926</v>
       </c>
       <c r="D5">
-        <v>4.907310187911929</v>
+        <v>2.869821300292712</v>
       </c>
       <c r="E5">
-        <v>7.542662574970222</v>
+        <v>4.327243163570654</v>
       </c>
       <c r="F5">
-        <v>23.92281501078958</v>
+        <v>42.89408503905491</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>5.878240944857914</v>
       </c>
       <c r="I5">
-        <v>17.56224508523331</v>
+        <v>6.26636955269406</v>
       </c>
       <c r="J5">
-        <v>6.030742603130736</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>9.186598507829057</v>
+        <v>30.68594157441782</v>
       </c>
       <c r="L5">
-        <v>6.517799612626598</v>
+        <v>5.451657172930163</v>
       </c>
       <c r="M5">
-        <v>9.408645285784058</v>
+        <v>9.885284980453228</v>
       </c>
       <c r="N5">
-        <v>14.20815445935842</v>
+        <v>5.68980530435145</v>
       </c>
       <c r="O5">
-        <v>18.16818695117622</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>8.903217179659299</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.28763085634493</v>
+        <v>10.71273780439934</v>
       </c>
       <c r="C6">
-        <v>6.044962751091239</v>
+        <v>6.484617175610942</v>
       </c>
       <c r="D6">
-        <v>4.901659825504048</v>
+        <v>2.866241816284479</v>
       </c>
       <c r="E6">
-        <v>7.543236799560472</v>
+        <v>4.321681953886915</v>
       </c>
       <c r="F6">
-        <v>23.92124674363131</v>
+        <v>42.78650731022077</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>5.891248505150786</v>
       </c>
       <c r="I6">
-        <v>17.56889401802834</v>
+        <v>6.279991257577369</v>
       </c>
       <c r="J6">
-        <v>6.032475440276908</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>9.157321981256922</v>
+        <v>30.61415834969955</v>
       </c>
       <c r="L6">
-        <v>6.515393145231858</v>
+        <v>5.445814727960297</v>
       </c>
       <c r="M6">
-        <v>9.396979775457398</v>
+        <v>9.863571565668964</v>
       </c>
       <c r="N6">
-        <v>14.21622665392184</v>
+        <v>5.686234911794568</v>
       </c>
       <c r="O6">
-        <v>18.17164252999057</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>8.892238737272567</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.52256180927875</v>
+        <v>10.92442461039787</v>
       </c>
       <c r="C7">
-        <v>6.099676269541849</v>
+        <v>6.619362773643362</v>
       </c>
       <c r="D7">
-        <v>4.94088803915018</v>
+        <v>2.864466841761557</v>
       </c>
       <c r="E7">
-        <v>7.539459109341514</v>
+        <v>4.359744415390871</v>
       </c>
       <c r="F7">
-        <v>23.93345106537404</v>
+        <v>43.19546319259747</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>5.808411394633233</v>
       </c>
       <c r="I7">
-        <v>17.52352627211099</v>
+        <v>6.210985049817102</v>
       </c>
       <c r="J7">
-        <v>6.020525371617556</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>9.358575800530872</v>
+        <v>30.8553103735215</v>
       </c>
       <c r="L7">
-        <v>6.532267348744135</v>
+        <v>5.473430799701194</v>
       </c>
       <c r="M7">
-        <v>9.477917459206045</v>
+        <v>10.02655771233398</v>
       </c>
       <c r="N7">
-        <v>14.16045285152495</v>
+        <v>5.72548292964166</v>
       </c>
       <c r="O7">
-        <v>18.14859153364267</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>8.9777325944642</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.51158581307323</v>
+        <v>11.82045215321354</v>
       </c>
       <c r="C8">
-        <v>6.33448766766691</v>
+        <v>7.185120944509106</v>
       </c>
       <c r="D8">
-        <v>5.113861973891056</v>
+        <v>2.861258790726747</v>
       </c>
       <c r="E8">
-        <v>7.527988324871412</v>
+        <v>4.523246706148563</v>
       </c>
       <c r="F8">
-        <v>24.02057133877808</v>
+        <v>45.03982688250409</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>5.453464142622698</v>
       </c>
       <c r="I8">
-        <v>17.34315228947056</v>
+        <v>5.910688709997213</v>
       </c>
       <c r="J8">
-        <v>5.969699230315719</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>10.19809017954477</v>
+        <v>31.9577400694215</v>
       </c>
       <c r="L8">
-        <v>6.610902227510923</v>
+        <v>5.594203256814033</v>
       </c>
       <c r="M8">
-        <v>9.833534582031147</v>
+        <v>10.72146314706895</v>
       </c>
       <c r="N8">
-        <v>13.9205561774883</v>
+        <v>5.893076042819859</v>
       </c>
       <c r="O8">
-        <v>18.07058069629861</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>9.347230154796824</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.27199750074743</v>
+        <v>13.42680096256595</v>
       </c>
       <c r="C9">
-        <v>6.769027043141556</v>
+        <v>8.379880798344194</v>
       </c>
       <c r="D9">
-        <v>5.449518424950014</v>
+        <v>2.857105490571672</v>
       </c>
       <c r="E9">
-        <v>7.524666618958927</v>
+        <v>4.828436317942954</v>
       </c>
       <c r="F9">
-        <v>24.31663554334231</v>
+        <v>48.58647218968603</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>4.797348458874476</v>
       </c>
       <c r="I9">
-        <v>17.06522159885334</v>
+        <v>5.349657590747436</v>
       </c>
       <c r="J9">
-        <v>5.876721536781275</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>11.66921860727305</v>
+        <v>34.10170830163663</v>
       </c>
       <c r="L9">
-        <v>6.779558311420121</v>
+        <v>5.820468337448954</v>
       </c>
       <c r="M9">
-        <v>10.51907692968288</v>
+        <v>11.99458940777164</v>
       </c>
       <c r="N9">
-        <v>13.47130951466321</v>
+        <v>6.208149352971745</v>
       </c>
       <c r="O9">
-        <v>18.0084914894811</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>10.04385445444954</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.48451713918385</v>
+        <v>14.51380213720535</v>
       </c>
       <c r="C10">
-        <v>7.070929133399091</v>
+        <v>9.208601968611795</v>
       </c>
       <c r="D10">
-        <v>5.691467018458424</v>
+        <v>2.819655122389455</v>
       </c>
       <c r="E10">
-        <v>7.534358647336457</v>
+        <v>5.012542381804798</v>
       </c>
       <c r="F10">
-        <v>24.61521911983057</v>
+        <v>50.52561205065952</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>4.368405697656425</v>
       </c>
       <c r="I10">
-        <v>16.91172003971813</v>
+        <v>4.975126969957881</v>
       </c>
       <c r="J10">
-        <v>5.812331380842513</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>12.64352396347878</v>
+        <v>35.22053139599957</v>
       </c>
       <c r="L10">
-        <v>6.911744797952085</v>
+        <v>5.942489878218914</v>
       </c>
       <c r="M10">
-        <v>11.01053028693285</v>
+        <v>12.88033558335581</v>
       </c>
       <c r="N10">
-        <v>13.15298985101601</v>
+        <v>6.380800295047368</v>
       </c>
       <c r="O10">
-        <v>18.02357843786261</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>10.50254446509442</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.03697421272013</v>
+        <v>15.04999719121007</v>
       </c>
       <c r="C11">
-        <v>7.204245945042907</v>
+        <v>9.576190061946846</v>
       </c>
       <c r="D11">
-        <v>5.800057824694854</v>
+        <v>2.611308012735105</v>
       </c>
       <c r="E11">
-        <v>7.54149651465372</v>
+        <v>4.896880867237119</v>
       </c>
       <c r="F11">
-        <v>24.76955502124238</v>
+        <v>47.36224381617401</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>4.840190826291736</v>
       </c>
       <c r="I11">
-        <v>16.85394151429091</v>
+        <v>4.905807474579491</v>
       </c>
       <c r="J11">
-        <v>5.783853972077122</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>13.06380042591136</v>
+        <v>32.89956320694151</v>
       </c>
       <c r="L11">
-        <v>6.973554125484097</v>
+        <v>5.765326838451007</v>
       </c>
       <c r="M11">
-        <v>11.23053669657318</v>
+        <v>13.32831346387306</v>
       </c>
       <c r="N11">
-        <v>13.01045434301696</v>
+        <v>5.992822551818775</v>
       </c>
       <c r="O11">
-        <v>18.04477021035957</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>10.39591774188144</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.24169375407645</v>
+        <v>15.28369677311886</v>
       </c>
       <c r="C12">
-        <v>7.254134181500585</v>
+        <v>9.695275859375274</v>
       </c>
       <c r="D12">
-        <v>5.840932095774262</v>
+        <v>2.475574274225076</v>
       </c>
       <c r="E12">
-        <v>7.544599430718042</v>
+        <v>4.863721106071009</v>
       </c>
       <c r="F12">
-        <v>24.83072501731444</v>
+        <v>44.42873617804312</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>5.762761117263212</v>
       </c>
       <c r="I12">
-        <v>16.83388699670597</v>
+        <v>4.905473988412107</v>
       </c>
       <c r="J12">
-        <v>5.773184384751928</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>13.21966836312641</v>
+        <v>30.83868527925378</v>
       </c>
       <c r="L12">
-        <v>6.997190112194267</v>
+        <v>5.668443428050118</v>
       </c>
       <c r="M12">
-        <v>11.31326924436945</v>
+        <v>13.51158692723699</v>
       </c>
       <c r="N12">
-        <v>12.95678275599667</v>
+        <v>5.642535398010723</v>
       </c>
       <c r="O12">
-        <v>18.05494991549171</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>10.1993402282202</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.19780248499689</v>
+        <v>15.30221683483766</v>
       </c>
       <c r="C13">
-        <v>7.243416612374907</v>
+        <v>9.654537614914343</v>
       </c>
       <c r="D13">
-        <v>5.832140582357737</v>
+        <v>2.377386382983017</v>
       </c>
       <c r="E13">
-        <v>7.543913254085092</v>
+        <v>4.890203932460621</v>
       </c>
       <c r="F13">
-        <v>24.81742873205064</v>
+        <v>41.31160462920976</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>6.903168798425422</v>
       </c>
       <c r="I13">
-        <v>16.83812341699073</v>
+        <v>4.970445157588772</v>
       </c>
       <c r="J13">
-        <v>5.775477239379589</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>13.18624505426446</v>
+        <v>28.7261820431386</v>
       </c>
       <c r="L13">
-        <v>6.992089619503074</v>
+        <v>5.622741479856738</v>
       </c>
       <c r="M13">
-        <v>11.29547806025376</v>
+        <v>13.52060594761278</v>
       </c>
       <c r="N13">
-        <v>12.96832877124866</v>
+        <v>5.308526577465939</v>
       </c>
       <c r="O13">
-        <v>18.05266019301531</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>9.922421426585561</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.05390623423826</v>
+        <v>15.21770477602698</v>
       </c>
       <c r="C14">
-        <v>7.208362314864026</v>
+        <v>9.557683234076979</v>
       </c>
       <c r="D14">
-        <v>5.803425707897744</v>
+        <v>2.328709943575848</v>
       </c>
       <c r="E14">
-        <v>7.541743734520499</v>
+        <v>4.947784855142924</v>
       </c>
       <c r="F14">
-        <v>24.7745325207556</v>
+        <v>39.01645128681682</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.778500254951465</v>
       </c>
       <c r="I14">
-        <v>16.85225449896927</v>
+        <v>5.04718368118047</v>
       </c>
       <c r="J14">
-        <v>5.782973906947441</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>13.07668943276062</v>
+        <v>27.21309856604946</v>
       </c>
       <c r="L14">
-        <v>6.975494123158358</v>
+        <v>5.623724774436285</v>
       </c>
       <c r="M14">
-        <v>11.23735511896083</v>
+        <v>13.44807604726966</v>
       </c>
       <c r="N14">
-        <v>13.0060328018039</v>
+        <v>5.089986279597084</v>
       </c>
       <c r="O14">
-        <v>18.04556397366418</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>9.690906402236671</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.965182942256</v>
+        <v>15.15000190649863</v>
       </c>
       <c r="C15">
-        <v>7.186812460159008</v>
+        <v>9.505148709926699</v>
       </c>
       <c r="D15">
-        <v>5.78580391107547</v>
+        <v>2.321344104805758</v>
       </c>
       <c r="E15">
-        <v>7.5404671511695</v>
+        <v>4.960046491001799</v>
       </c>
       <c r="F15">
-        <v>24.74861423826311</v>
+        <v>38.38419409317057</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.994399404479324</v>
       </c>
       <c r="I15">
-        <v>16.8611506668253</v>
+        <v>5.084014681120208</v>
       </c>
       <c r="J15">
-        <v>5.787580616402531</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>13.00915665589385</v>
+        <v>26.80727588992664</v>
       </c>
       <c r="L15">
-        <v>6.965358545924988</v>
+        <v>5.624720812040527</v>
       </c>
       <c r="M15">
-        <v>11.20167584848241</v>
+        <v>13.39387822038964</v>
       </c>
       <c r="N15">
-        <v>13.02916643590799</v>
+        <v>5.038919425322163</v>
       </c>
       <c r="O15">
-        <v>18.04150076125855</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>9.618973247916275</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.44778300126503</v>
+        <v>14.70377278961054</v>
       </c>
       <c r="C16">
-        <v>7.062134071645594</v>
+        <v>9.180281640648115</v>
       </c>
       <c r="D16">
-        <v>5.684337653946099</v>
+        <v>2.354032294345143</v>
       </c>
       <c r="E16">
-        <v>7.533947729581052</v>
+        <v>4.871182137201227</v>
       </c>
       <c r="F16">
-        <v>24.60551100702322</v>
+        <v>38.02421202113585</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.89962707063339</v>
       </c>
       <c r="I16">
-        <v>16.91574626168853</v>
+        <v>5.235012641569721</v>
       </c>
       <c r="J16">
-        <v>5.814208583823998</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>12.61559767336231</v>
+        <v>26.66241388320403</v>
       </c>
       <c r="L16">
-        <v>6.90773821773194</v>
+        <v>5.57623195111708</v>
       </c>
       <c r="M16">
-        <v>10.9960748151326</v>
+        <v>13.03176774411531</v>
       </c>
       <c r="N16">
-        <v>13.16234862786283</v>
+        <v>5.030794247776567</v>
       </c>
       <c r="O16">
-        <v>18.02248990188637</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>9.475293833242745</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.12234329776879</v>
+        <v>14.40080222062493</v>
       </c>
       <c r="C17">
-        <v>6.984604554275939</v>
+        <v>8.980662878707427</v>
       </c>
       <c r="D17">
-        <v>5.621688238956927</v>
+        <v>2.402142835948242</v>
       </c>
       <c r="E17">
-        <v>7.53065259769681</v>
+        <v>4.762068921993729</v>
       </c>
       <c r="F17">
-        <v>24.52251010752952</v>
+        <v>38.98349641483527</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.348158002117203</v>
       </c>
       <c r="I17">
-        <v>16.95238942952728</v>
+        <v>5.311088165318092</v>
       </c>
       <c r="J17">
-        <v>5.830750458907968</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>12.36829746641343</v>
+        <v>27.35524037968828</v>
       </c>
       <c r="L17">
-        <v>6.872811713400289</v>
+        <v>5.531490020513639</v>
       </c>
       <c r="M17">
-        <v>10.86898354588669</v>
+        <v>12.78907976543013</v>
       </c>
       <c r="N17">
-        <v>13.24461703684147</v>
+        <v>5.13784342676842</v>
       </c>
       <c r="O17">
-        <v>18.0145643918577</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>9.490703915866938</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.94253980796367</v>
+        <v>14.19357058222318</v>
       </c>
       <c r="C18">
-        <v>6.939634108516099</v>
+        <v>8.857089504874031</v>
       </c>
       <c r="D18">
-        <v>5.585517196340324</v>
+        <v>2.485129531083544</v>
       </c>
       <c r="E18">
-        <v>7.529013735205664</v>
+        <v>4.674098868079327</v>
       </c>
       <c r="F18">
-        <v>24.47650878097563</v>
+        <v>41.29262295243523</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>6.414038272143039</v>
       </c>
       <c r="I18">
-        <v>16.97459404465311</v>
+        <v>5.319867491701713</v>
       </c>
       <c r="J18">
-        <v>5.840341702408527</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>12.22389643099875</v>
+        <v>28.94174599064393</v>
       </c>
       <c r="L18">
-        <v>6.852881429019907</v>
+        <v>5.524383378020274</v>
       </c>
       <c r="M18">
-        <v>10.7955526528579</v>
+        <v>12.62101580582567</v>
       </c>
       <c r="N18">
-        <v>13.2921507261707</v>
+        <v>5.372080960326662</v>
       </c>
       <c r="O18">
-        <v>18.01134886961241</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>9.640854431565604</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.88286198479162</v>
+        <v>14.07488407926923</v>
       </c>
       <c r="C19">
-        <v>6.924343647282469</v>
+        <v>8.832208163529707</v>
       </c>
       <c r="D19">
-        <v>5.573247934703834</v>
+        <v>2.600282424850444</v>
       </c>
       <c r="E19">
-        <v>7.528502652653317</v>
+        <v>4.687333277860546</v>
       </c>
       <c r="F19">
-        <v>24.46123006763108</v>
+        <v>44.38454323016645</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>5.416721203633874</v>
       </c>
       <c r="I19">
-        <v>16.98230321735012</v>
+        <v>5.283546266405571</v>
       </c>
       <c r="J19">
-        <v>5.843602407723837</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>12.17463319551672</v>
+        <v>31.05528717711355</v>
       </c>
       <c r="L19">
-        <v>6.846160937871414</v>
+        <v>5.602625642792568</v>
       </c>
       <c r="M19">
-        <v>10.77063548080453</v>
+        <v>12.53155259486973</v>
       </c>
       <c r="N19">
-        <v>13.30828243262933</v>
+        <v>5.720951680446746</v>
       </c>
       <c r="O19">
-        <v>18.01048793971784</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>9.88881676604402</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.15729347227732</v>
+        <v>14.22663869135549</v>
       </c>
       <c r="C20">
-        <v>6.992896915242458</v>
+        <v>9.03803229491316</v>
       </c>
       <c r="D20">
-        <v>5.628371793674332</v>
+        <v>2.804795439030661</v>
       </c>
       <c r="E20">
-        <v>7.5309767778544</v>
+        <v>4.962657376831586</v>
       </c>
       <c r="F20">
-        <v>24.53116527107593</v>
+        <v>49.72366246672797</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>4.486061467194297</v>
       </c>
       <c r="I20">
-        <v>16.9483712591773</v>
+        <v>5.096873234414093</v>
       </c>
       <c r="J20">
-        <v>5.828981620539439</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>12.39484648687703</v>
+        <v>34.69906410888978</v>
       </c>
       <c r="L20">
-        <v>6.876513373267774</v>
+        <v>5.898568954132978</v>
       </c>
       <c r="M20">
-        <v>10.88254743485195</v>
+        <v>12.66157564650751</v>
       </c>
       <c r="N20">
-        <v>13.23583732632748</v>
+        <v>6.345994894454885</v>
       </c>
       <c r="O20">
-        <v>18.0152683948247</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>10.38937553498579</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.0962934055854</v>
+        <v>15.01748563636148</v>
       </c>
       <c r="C21">
-        <v>7.218674912058344</v>
+        <v>9.645437052130667</v>
       </c>
       <c r="D21">
-        <v>5.811866919597137</v>
+        <v>2.81312483248823</v>
       </c>
       <c r="E21">
-        <v>7.542370060227865</v>
+        <v>5.150411883275982</v>
       </c>
       <c r="F21">
-        <v>24.78705769472716</v>
+        <v>51.92768687750507</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>4.120883024097298</v>
       </c>
       <c r="I21">
-        <v>16.84805357297109</v>
+        <v>4.79570395245896</v>
       </c>
       <c r="J21">
-        <v>5.780768878224011</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>13.10895748257108</v>
+        <v>36.06793173032186</v>
       </c>
       <c r="L21">
-        <v>6.980362464673344</v>
+        <v>6.041577756748324</v>
       </c>
       <c r="M21">
-        <v>11.25444345294761</v>
+        <v>13.36984967604999</v>
       </c>
       <c r="N21">
-        <v>12.99495016523283</v>
+        <v>6.561071892250886</v>
       </c>
       <c r="O21">
-        <v>18.04758907091005</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>10.78847920782272</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.68386842167539</v>
+        <v>15.52349952373884</v>
       </c>
       <c r="C22">
-        <v>7.362754224747984</v>
+        <v>10.01483619615897</v>
       </c>
       <c r="D22">
-        <v>5.930339788975704</v>
+        <v>2.815789050218316</v>
       </c>
       <c r="E22">
-        <v>7.552150985368431</v>
+        <v>5.255779105353359</v>
       </c>
       <c r="F22">
-        <v>24.97021590164228</v>
+        <v>53.21116595665865</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>3.897144266233017</v>
       </c>
       <c r="I22">
-        <v>16.79317323895216</v>
+        <v>4.597691521897727</v>
       </c>
       <c r="J22">
-        <v>5.749923242917208</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>13.55655285644521</v>
+        <v>36.86527099004704</v>
       </c>
       <c r="L22">
-        <v>7.049570186949593</v>
+        <v>6.121392022554421</v>
       </c>
       <c r="M22">
-        <v>11.49409750069431</v>
+        <v>13.85984571785686</v>
       </c>
       <c r="N22">
-        <v>12.83927407089111</v>
+        <v>6.666484678459677</v>
       </c>
       <c r="O22">
-        <v>18.08131636600942</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>11.02365416861922</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.37264404753559</v>
+        <v>15.25852363757557</v>
       </c>
       <c r="C23">
-        <v>7.286179847716314</v>
+        <v>9.803611313408279</v>
       </c>
       <c r="D23">
-        <v>5.867252082446711</v>
+        <v>2.823727315891858</v>
       </c>
       <c r="E23">
-        <v>7.546714606324426</v>
+        <v>5.199804528187742</v>
       </c>
       <c r="F23">
-        <v>24.87098434491617</v>
+        <v>52.63195203751512</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>4.013945455330988</v>
       </c>
       <c r="I23">
-        <v>16.82145483366214</v>
+        <v>4.693509494374213</v>
       </c>
       <c r="J23">
-        <v>5.766326339701839</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>13.31940544367959</v>
+        <v>36.52200436802764</v>
       </c>
       <c r="L23">
-        <v>7.012514078434073</v>
+        <v>6.083078542569823</v>
       </c>
       <c r="M23">
-        <v>11.36652121823672</v>
+        <v>13.59814084962502</v>
       </c>
       <c r="N23">
-        <v>12.92220840153385</v>
+        <v>6.605583102935617</v>
       </c>
       <c r="O23">
-        <v>18.06213102317184</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>10.89582968750868</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.14150200049907</v>
+        <v>14.21198083025471</v>
       </c>
       <c r="C24">
-        <v>6.98914917618218</v>
+        <v>9.004493776475163</v>
       </c>
       <c r="D24">
-        <v>5.62535063264459</v>
+        <v>2.836250966682537</v>
       </c>
       <c r="E24">
-        <v>7.530829420587024</v>
+        <v>4.985024736669383</v>
       </c>
       <c r="F24">
-        <v>24.5272469285437</v>
+        <v>50.21278374627502</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>4.467478339613043</v>
       </c>
       <c r="I24">
-        <v>16.95018433639654</v>
+        <v>5.078966070438352</v>
       </c>
       <c r="J24">
-        <v>5.829781059544633</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>12.38285060589681</v>
+        <v>35.05680555849446</v>
       </c>
       <c r="L24">
-        <v>6.874839386569333</v>
+        <v>5.928211086860705</v>
       </c>
       <c r="M24">
-        <v>10.87641633056596</v>
+        <v>12.64030334416662</v>
       </c>
       <c r="N24">
-        <v>13.23980589513825</v>
+        <v>6.379947025884915</v>
       </c>
       <c r="O24">
-        <v>18.01494594544491</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>10.40717783981135</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.81547050635321</v>
+        <v>13.00402020500087</v>
       </c>
       <c r="C25">
-        <v>6.654421210935412</v>
+        <v>8.091924887214272</v>
       </c>
       <c r="D25">
-        <v>5.359363280105297</v>
+        <v>2.845111734558627</v>
       </c>
       <c r="E25">
-        <v>7.523466528488922</v>
+        <v>4.74725981796448</v>
       </c>
       <c r="F25">
-        <v>24.22262755161418</v>
+        <v>47.48369559677371</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>4.974014754249783</v>
       </c>
       <c r="I25">
-        <v>17.13184653779135</v>
+        <v>5.510862430410262</v>
       </c>
       <c r="J25">
-        <v>5.90117417278594</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>11.2899892410043</v>
+        <v>33.40639908232193</v>
       </c>
       <c r="L25">
-        <v>6.732438383748987</v>
+        <v>5.754381649143165</v>
       </c>
       <c r="M25">
-        <v>10.33542900184848</v>
+        <v>11.66577374668005</v>
       </c>
       <c r="N25">
-        <v>13.59069216151568</v>
+        <v>6.131373731628996</v>
       </c>
       <c r="O25">
-        <v>18.01501378409863</v>
+        <v>9.863010114643647</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_23/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.05735779978119</v>
+        <v>11.68739525879698</v>
       </c>
       <c r="C2">
-        <v>7.328319514279056</v>
+        <v>8.437450902399304</v>
       </c>
       <c r="D2">
-        <v>2.871143134476786</v>
+        <v>2.304437278349623</v>
       </c>
       <c r="E2">
-        <v>4.566619625407872</v>
+        <v>4.755594593381611</v>
       </c>
       <c r="F2">
-        <v>45.66432358570563</v>
+        <v>39.2398213303896</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>5.357372993093882</v>
+        <v>4.977176174284672</v>
       </c>
       <c r="I2">
-        <v>5.821762325315486</v>
+        <v>5.35355013716992</v>
       </c>
       <c r="J2">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K2">
-        <v>32.35461653243606</v>
+        <v>27.18113638910258</v>
       </c>
       <c r="L2">
-        <v>5.631150865182077</v>
+        <v>20.26888378238991</v>
       </c>
       <c r="M2">
-        <v>10.89930414461615</v>
+        <v>20.1238825243269</v>
       </c>
       <c r="N2">
-        <v>5.931930286168567</v>
+        <v>5.429817439732585</v>
       </c>
       <c r="O2">
-        <v>9.442064583039389</v>
+        <v>11.00993055042609</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.507596750976173</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.529450529233873</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.37084792666138</v>
+        <v>10.98814215227036</v>
       </c>
       <c r="C3">
-        <v>6.874828310091317</v>
+        <v>7.940775697323329</v>
       </c>
       <c r="D3">
-        <v>2.873149682022397</v>
+        <v>2.319493810661896</v>
       </c>
       <c r="E3">
-        <v>4.440050657730857</v>
+        <v>4.634728511907231</v>
       </c>
       <c r="F3">
-        <v>44.2211468546592</v>
+        <v>38.38931014031718</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5.631364963482971</v>
+        <v>5.224785004980134</v>
       </c>
       <c r="I3">
-        <v>6.05432266116703</v>
+        <v>5.555731701465937</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>31.48872146475244</v>
+        <v>26.77292106625169</v>
       </c>
       <c r="L3">
-        <v>5.537496247308535</v>
+        <v>20.05678686770482</v>
       </c>
       <c r="M3">
-        <v>10.36323399417173</v>
+        <v>19.75856193328334</v>
       </c>
       <c r="N3">
-        <v>5.801843218191771</v>
+        <v>5.359367313092719</v>
       </c>
       <c r="O3">
-        <v>9.15467742897232</v>
+        <v>10.43597850921305</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.360753693427264</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.216471800651128</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.93021806814126</v>
+        <v>10.53666150406402</v>
       </c>
       <c r="C4">
-        <v>6.601840624496629</v>
+        <v>7.629624312035446</v>
       </c>
       <c r="D4">
-        <v>2.872842947562452</v>
+        <v>2.32880786123869</v>
       </c>
       <c r="E4">
-        <v>4.360299034982256</v>
+        <v>4.558550578241938</v>
       </c>
       <c r="F4">
-        <v>43.30579064231554</v>
+        <v>37.85231659459828</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5.805265147562082</v>
+        <v>5.382124356380505</v>
       </c>
       <c r="I4">
-        <v>6.202376781010891</v>
+        <v>5.684798330244945</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>30.93867500794576</v>
+        <v>26.51316888534762</v>
       </c>
       <c r="L4">
-        <v>5.477767423275752</v>
+        <v>19.91345516251743</v>
       </c>
       <c r="M4">
-        <v>10.02438945266361</v>
+        <v>19.54176772443917</v>
       </c>
       <c r="N4">
-        <v>5.721362987867627</v>
+        <v>5.314321857257333</v>
       </c>
       <c r="O4">
-        <v>8.975760237176654</v>
+        <v>10.07100055880894</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.269989702642717</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>9.020707568473211</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.74499569798071</v>
+        <v>10.3463274438957</v>
       </c>
       <c r="C5">
-        <v>6.49527717955926</v>
+        <v>7.506140245236324</v>
       </c>
       <c r="D5">
-        <v>2.869821300292712</v>
+        <v>2.332631123841554</v>
       </c>
       <c r="E5">
-        <v>4.327243163570654</v>
+        <v>4.526968909313197</v>
       </c>
       <c r="F5">
-        <v>42.89408503905491</v>
+        <v>37.60531929986276</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5.878240944857914</v>
+        <v>5.448152341177503</v>
       </c>
       <c r="I5">
-        <v>6.26636955269406</v>
+        <v>5.74120954746912</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>30.68594157441782</v>
+        <v>26.38697197704871</v>
       </c>
       <c r="L5">
-        <v>5.451657172930163</v>
+        <v>19.83613647054219</v>
       </c>
       <c r="M5">
-        <v>9.885284980453228</v>
+        <v>19.44366395159296</v>
       </c>
       <c r="N5">
-        <v>5.68980530435145</v>
+        <v>5.29470608551617</v>
       </c>
       <c r="O5">
-        <v>8.903217179659299</v>
+        <v>9.920295394058822</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.233988343847342</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>8.940870401367015</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.71273780439934</v>
+        <v>10.31331865470368</v>
       </c>
       <c r="C6">
-        <v>6.484617175610942</v>
+        <v>7.491295366768471</v>
       </c>
       <c r="D6">
-        <v>2.866241816284479</v>
+        <v>2.333314102931009</v>
       </c>
       <c r="E6">
-        <v>4.321681953886915</v>
+        <v>4.521649871386565</v>
       </c>
       <c r="F6">
-        <v>42.78650731022077</v>
+        <v>37.53399268577394</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5.891248505150786</v>
+        <v>5.459874054937369</v>
       </c>
       <c r="I6">
-        <v>6.279991257577369</v>
+        <v>5.753895720555273</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>30.61415834969955</v>
+        <v>26.34374760140648</v>
       </c>
       <c r="L6">
-        <v>5.445814727960297</v>
+        <v>19.80404617425254</v>
       </c>
       <c r="M6">
-        <v>9.863571565668964</v>
+        <v>19.41305043518997</v>
       </c>
       <c r="N6">
-        <v>5.686234911794568</v>
+        <v>5.290440955506978</v>
       </c>
       <c r="O6">
-        <v>8.892238737272567</v>
+        <v>9.89633894405662</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.229358561404295</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>8.928474317457416</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.92442461039787</v>
+        <v>10.53121271651316</v>
       </c>
       <c r="C7">
-        <v>6.619362773643362</v>
+        <v>7.643313534010231</v>
       </c>
       <c r="D7">
-        <v>2.864466841761557</v>
+        <v>2.329119307119791</v>
       </c>
       <c r="E7">
-        <v>4.359744415390871</v>
+        <v>4.558007729018227</v>
       </c>
       <c r="F7">
-        <v>43.19546319259747</v>
+        <v>37.76765303519014</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5.808411394633233</v>
+        <v>5.384829011331075</v>
       </c>
       <c r="I7">
-        <v>6.210985049817102</v>
+        <v>5.694154058957572</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>30.8553103735215</v>
+        <v>26.45156708699681</v>
       </c>
       <c r="L7">
-        <v>5.473430799701194</v>
+        <v>19.86137055052873</v>
       </c>
       <c r="M7">
-        <v>10.02655771233398</v>
+        <v>19.50080085233021</v>
       </c>
       <c r="N7">
-        <v>5.72548292964166</v>
+        <v>5.311418700875599</v>
       </c>
       <c r="O7">
-        <v>8.9777325944642</v>
+        <v>10.07228423199924</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.273181773511006</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>9.022067114524836</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.82045215321354</v>
+        <v>11.44725572460971</v>
       </c>
       <c r="C8">
-        <v>7.185120944509106</v>
+        <v>8.286490723773104</v>
       </c>
       <c r="D8">
-        <v>2.861258790726747</v>
+        <v>2.310610336242501</v>
       </c>
       <c r="E8">
-        <v>4.523246706148563</v>
+        <v>4.714176532884249</v>
       </c>
       <c r="F8">
-        <v>45.03982688250409</v>
+        <v>38.84608370021927</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5.453464142622698</v>
+        <v>5.063766129826445</v>
       </c>
       <c r="I8">
-        <v>5.910688709997213</v>
+        <v>5.433123405717399</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>31.9577400694215</v>
+        <v>26.96556650374721</v>
       </c>
       <c r="L8">
-        <v>5.594203256814033</v>
+        <v>20.13501980434885</v>
       </c>
       <c r="M8">
-        <v>10.72146314706895</v>
+        <v>19.94368168021584</v>
       </c>
       <c r="N8">
-        <v>5.893076042819859</v>
+        <v>5.402560629842652</v>
       </c>
       <c r="O8">
-        <v>9.347230154796824</v>
+        <v>10.81871690467002</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.461873006137411</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.425372942981674</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.42680096256595</v>
+        <v>13.06990722212895</v>
       </c>
       <c r="C9">
-        <v>8.379880798344194</v>
+        <v>9.467611426954619</v>
       </c>
       <c r="D9">
-        <v>2.857105490571672</v>
+        <v>2.27351690380622</v>
       </c>
       <c r="E9">
-        <v>4.828436317942954</v>
+        <v>5.005406441776363</v>
       </c>
       <c r="F9">
-        <v>48.58647218968603</v>
+        <v>40.97493024535772</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.797348458874476</v>
+        <v>4.472123427534942</v>
       </c>
       <c r="I9">
-        <v>5.349657590747436</v>
+        <v>4.94538365865323</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>34.10170830163663</v>
+        <v>28.0014361543577</v>
       </c>
       <c r="L9">
-        <v>5.820468337448954</v>
+        <v>20.65208082212443</v>
       </c>
       <c r="M9">
-        <v>11.99458940777164</v>
+        <v>20.93592180120504</v>
       </c>
       <c r="N9">
-        <v>6.208149352971745</v>
+        <v>5.571821166756818</v>
       </c>
       <c r="O9">
-        <v>10.04385445444954</v>
+        <v>12.17159319511627</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>6.81941803289023</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.17975939957753</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.51380213720535</v>
+        <v>14.162289195433</v>
       </c>
       <c r="C10">
-        <v>9.208601968611795</v>
+        <v>10.35232820845638</v>
       </c>
       <c r="D10">
-        <v>2.819655122389455</v>
+        <v>2.243144856461318</v>
       </c>
       <c r="E10">
-        <v>5.012542381804798</v>
+        <v>5.178060980461939</v>
       </c>
       <c r="F10">
-        <v>50.52561205065952</v>
+        <v>42.08573197450804</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.368405697656425</v>
+        <v>4.087076183305923</v>
       </c>
       <c r="I10">
-        <v>4.975126969957881</v>
+        <v>4.621899616224761</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>35.22053139599957</v>
+        <v>28.46981808010979</v>
       </c>
       <c r="L10">
-        <v>5.942489878218914</v>
+        <v>20.78020295735503</v>
       </c>
       <c r="M10">
-        <v>12.88033558335581</v>
+        <v>21.50675651933755</v>
       </c>
       <c r="N10">
-        <v>6.380800295047368</v>
+        <v>5.66748575400603</v>
       </c>
       <c r="O10">
-        <v>10.50254446509442</v>
+        <v>13.1497575812192</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.015308567219298</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>10.67101466541642</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.04999719121007</v>
+        <v>14.72587886013939</v>
       </c>
       <c r="C11">
-        <v>9.576190061946846</v>
+        <v>10.62473106195196</v>
       </c>
       <c r="D11">
-        <v>2.611308012735105</v>
+        <v>2.200981750294076</v>
       </c>
       <c r="E11">
-        <v>4.896880867237119</v>
+        <v>5.045084501128065</v>
       </c>
       <c r="F11">
-        <v>47.36224381617401</v>
+        <v>39.60765083900932</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.840190826291736</v>
+        <v>4.588619408190276</v>
       </c>
       <c r="I11">
-        <v>4.905807474579491</v>
+        <v>4.558388043406994</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806006</v>
       </c>
       <c r="K11">
-        <v>32.89956320694151</v>
+        <v>26.74067597532477</v>
       </c>
       <c r="L11">
-        <v>5.765326838451007</v>
+        <v>19.34142378585771</v>
       </c>
       <c r="M11">
-        <v>13.32831346387306</v>
+        <v>20.33286326482298</v>
       </c>
       <c r="N11">
-        <v>5.992822551818775</v>
+        <v>5.587275623654216</v>
       </c>
       <c r="O11">
-        <v>10.39591774188144</v>
+        <v>13.60937887430976</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.576703306582367</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>10.54803171947946</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.28369677311886</v>
+        <v>14.98225666423624</v>
       </c>
       <c r="C12">
-        <v>9.695275859375274</v>
+        <v>10.64667329572591</v>
       </c>
       <c r="D12">
-        <v>2.475574274225076</v>
+        <v>2.178401835380188</v>
       </c>
       <c r="E12">
-        <v>4.863721106071009</v>
+        <v>4.998439545487457</v>
       </c>
       <c r="F12">
-        <v>44.42873617804312</v>
+        <v>37.39601887481383</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5.762761117263212</v>
+        <v>5.545679624185628</v>
       </c>
       <c r="I12">
-        <v>4.905473988412107</v>
+        <v>4.551943857344943</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>30.83868527925378</v>
+        <v>25.29059719913676</v>
       </c>
       <c r="L12">
-        <v>5.668443428050118</v>
+        <v>18.19716775847295</v>
       </c>
       <c r="M12">
-        <v>13.51158692723699</v>
+        <v>19.28693919970769</v>
       </c>
       <c r="N12">
-        <v>5.642535398010723</v>
+        <v>5.569020827353252</v>
       </c>
       <c r="O12">
-        <v>10.1993402282202</v>
+        <v>13.7761833885818</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.178726218949219</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>10.33196617910348</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.30221683483766</v>
+        <v>15.02431455086345</v>
       </c>
       <c r="C13">
-        <v>9.654537614914343</v>
+        <v>10.49407644886233</v>
       </c>
       <c r="D13">
-        <v>2.377386382983017</v>
+        <v>2.169539942314816</v>
       </c>
       <c r="E13">
-        <v>4.890203932460621</v>
+        <v>5.014392187700362</v>
       </c>
       <c r="F13">
-        <v>41.31160462920976</v>
+        <v>35.11894412110539</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6.903168798425422</v>
+        <v>6.710523431259202</v>
       </c>
       <c r="I13">
-        <v>4.970445157588772</v>
+        <v>4.602857205389419</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>28.7261820431386</v>
+        <v>23.87717191496409</v>
       </c>
       <c r="L13">
-        <v>5.622741479856738</v>
+        <v>17.12787036157304</v>
       </c>
       <c r="M13">
-        <v>13.52060594761278</v>
+        <v>18.21780073359097</v>
       </c>
       <c r="N13">
-        <v>5.308526577465939</v>
+        <v>5.590954888057454</v>
       </c>
       <c r="O13">
-        <v>9.922421426585561</v>
+        <v>13.73583402846802</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.795347276139331</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>10.03061932142871</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.21770477602698</v>
+        <v>14.95657264882927</v>
       </c>
       <c r="C14">
-        <v>9.557683234076979</v>
+        <v>10.30946799144014</v>
       </c>
       <c r="D14">
-        <v>2.328709943575848</v>
+        <v>2.170780924597958</v>
       </c>
       <c r="E14">
-        <v>4.947784855142924</v>
+        <v>5.066242531889483</v>
       </c>
       <c r="F14">
-        <v>39.01645128681682</v>
+        <v>33.47642984166693</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.778500254951465</v>
+        <v>7.597763450570078</v>
       </c>
       <c r="I14">
-        <v>5.04718368118047</v>
+        <v>4.666757551656064</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>27.21309856604946</v>
+        <v>22.89976010127924</v>
       </c>
       <c r="L14">
-        <v>5.623724774436285</v>
+        <v>16.40357017696549</v>
       </c>
       <c r="M14">
-        <v>13.44807604726966</v>
+        <v>17.46036682091855</v>
       </c>
       <c r="N14">
-        <v>5.089986279597084</v>
+        <v>5.631394114556405</v>
       </c>
       <c r="O14">
-        <v>9.690906402236671</v>
+        <v>13.61418750304774</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.541771994357591</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>9.77929055634613</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.15000190649863</v>
+        <v>14.89298222053559</v>
       </c>
       <c r="C15">
-        <v>9.505148709926699</v>
+        <v>10.23115494446376</v>
       </c>
       <c r="D15">
-        <v>2.321344104805758</v>
+        <v>2.174303605192658</v>
       </c>
       <c r="E15">
-        <v>4.960046491001799</v>
+        <v>5.077892666555852</v>
       </c>
       <c r="F15">
-        <v>38.38419409317057</v>
+        <v>33.03674182061804</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.994399404479324</v>
+        <v>7.81461511420027</v>
       </c>
       <c r="I15">
-        <v>5.084014681120208</v>
+        <v>4.699120276384343</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702168163</v>
       </c>
       <c r="K15">
-        <v>26.80727588992664</v>
+        <v>22.64958644397935</v>
       </c>
       <c r="L15">
-        <v>5.624720812040527</v>
+        <v>16.22306528489101</v>
       </c>
       <c r="M15">
-        <v>13.39387822038964</v>
+        <v>17.26030221206618</v>
       </c>
       <c r="N15">
-        <v>5.038919425322163</v>
+        <v>5.640758675844974</v>
       </c>
       <c r="O15">
-        <v>9.618973247916275</v>
+        <v>13.54028054462479</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.481991851490492</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.701175921360933</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.70377278961054</v>
+        <v>14.44351141657831</v>
       </c>
       <c r="C16">
-        <v>9.180281640648115</v>
+        <v>9.877710076176742</v>
       </c>
       <c r="D16">
-        <v>2.354032294345143</v>
+        <v>2.183048786506132</v>
       </c>
       <c r="E16">
-        <v>4.871182137201227</v>
+        <v>4.995993352819346</v>
       </c>
       <c r="F16">
-        <v>38.02421202113585</v>
+        <v>32.9107857772475</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.89962707063339</v>
+        <v>7.701443728066865</v>
       </c>
       <c r="I16">
-        <v>5.235012641569721</v>
+        <v>4.832197069548448</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>26.66241388320403</v>
+        <v>22.67527426088006</v>
       </c>
       <c r="L16">
-        <v>5.57623195111708</v>
+        <v>16.29330282385038</v>
       </c>
       <c r="M16">
-        <v>13.03176774411531</v>
+        <v>17.21975496202867</v>
       </c>
       <c r="N16">
-        <v>5.030794247776567</v>
+        <v>5.587942641799792</v>
       </c>
       <c r="O16">
-        <v>9.475293833242745</v>
+        <v>13.15014212472954</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.473994918386928</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.546728017279749</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.40080222062493</v>
+        <v>14.12830452927444</v>
       </c>
       <c r="C17">
-        <v>8.980662878707427</v>
+        <v>9.705805149167396</v>
       </c>
       <c r="D17">
-        <v>2.402142835948242</v>
+        <v>2.190112027010777</v>
       </c>
       <c r="E17">
-        <v>4.762068921993729</v>
+        <v>4.895469335248757</v>
       </c>
       <c r="F17">
-        <v>38.98349641483527</v>
+        <v>33.69516058948637</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.348158002117203</v>
+        <v>7.126906747062887</v>
       </c>
       <c r="I17">
-        <v>5.311088165318092</v>
+        <v>4.901214747980215</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326999</v>
       </c>
       <c r="K17">
-        <v>27.35524037968828</v>
+        <v>23.21138352286254</v>
       </c>
       <c r="L17">
-        <v>5.531490020513639</v>
+        <v>16.74091083930858</v>
       </c>
       <c r="M17">
-        <v>12.78907976543013</v>
+        <v>17.58172353190973</v>
       </c>
       <c r="N17">
-        <v>5.13784342676842</v>
+        <v>5.520826332869126</v>
       </c>
       <c r="O17">
-        <v>9.490703915866938</v>
+        <v>12.90817237060972</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.599335070780564</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>9.564766085286553</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.19357058222318</v>
+        <v>13.90024515997921</v>
       </c>
       <c r="C18">
-        <v>8.857089504874031</v>
+        <v>9.663783663061245</v>
       </c>
       <c r="D18">
-        <v>2.485129531083544</v>
+        <v>2.19768085577906</v>
       </c>
       <c r="E18">
-        <v>4.674098868079327</v>
+        <v>4.818579995351077</v>
       </c>
       <c r="F18">
-        <v>41.29262295243523</v>
+        <v>35.43316013804903</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>6.414038272143039</v>
+        <v>6.161294728441067</v>
       </c>
       <c r="I18">
-        <v>5.319867491701713</v>
+        <v>4.91105892514837</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>28.94174599064393</v>
+        <v>24.31982785513459</v>
       </c>
       <c r="L18">
-        <v>5.524383378020274</v>
+        <v>17.62979977009106</v>
       </c>
       <c r="M18">
-        <v>12.62101580582567</v>
+        <v>18.37295275702533</v>
       </c>
       <c r="N18">
-        <v>5.372080960326662</v>
+        <v>5.466060575065934</v>
       </c>
       <c r="O18">
-        <v>9.640854431565604</v>
+        <v>12.75476694150182</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.870222703963493</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>9.730238325974144</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.07488407926923</v>
+        <v>13.75721262201844</v>
       </c>
       <c r="C19">
-        <v>8.832208163529707</v>
+        <v>9.751528602850565</v>
       </c>
       <c r="D19">
-        <v>2.600282424850444</v>
+        <v>2.218762598471128</v>
       </c>
       <c r="E19">
-        <v>4.687333277860546</v>
+        <v>4.843763517770894</v>
       </c>
       <c r="F19">
-        <v>44.38454323016645</v>
+        <v>37.71126536398739</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>5.416721203633874</v>
+        <v>5.129516638087577</v>
       </c>
       <c r="I19">
-        <v>5.283546266405571</v>
+        <v>4.885750752692107</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033017</v>
       </c>
       <c r="K19">
-        <v>31.05528717711355</v>
+        <v>25.75837088382581</v>
       </c>
       <c r="L19">
-        <v>5.602625642792568</v>
+        <v>18.76871328861442</v>
       </c>
       <c r="M19">
-        <v>12.53155259486973</v>
+        <v>19.41446688882887</v>
       </c>
       <c r="N19">
-        <v>5.720951680446746</v>
+        <v>5.472441789465227</v>
       </c>
       <c r="O19">
-        <v>9.88881676604402</v>
+        <v>12.68920875129308</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.267250074698783</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>10.00184638079675</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.22663869135549</v>
+        <v>13.87476653970656</v>
       </c>
       <c r="C20">
-        <v>9.03803229491316</v>
+        <v>10.15157309428725</v>
       </c>
       <c r="D20">
-        <v>2.804795439030661</v>
+        <v>2.257141744157068</v>
       </c>
       <c r="E20">
-        <v>4.962657376831586</v>
+        <v>5.131224145343478</v>
       </c>
       <c r="F20">
-        <v>49.72366246672797</v>
+        <v>41.56220797572098</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.486061467194297</v>
+        <v>4.191939687328501</v>
       </c>
       <c r="I20">
-        <v>5.096873234414093</v>
+        <v>4.733346385421374</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>34.69906410888978</v>
+        <v>28.17354474305668</v>
       </c>
       <c r="L20">
-        <v>5.898568954132978</v>
+        <v>20.6122318705094</v>
       </c>
       <c r="M20">
-        <v>12.66157564650751</v>
+        <v>21.226999838294</v>
       </c>
       <c r="N20">
-        <v>6.345994894454885</v>
+        <v>5.634979607018495</v>
       </c>
       <c r="O20">
-        <v>10.38937553498579</v>
+        <v>12.87840929381124</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>6.971835665665871</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>10.54811062346322</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.01748563636148</v>
+        <v>14.69562831458217</v>
       </c>
       <c r="C21">
-        <v>9.645437052130667</v>
+        <v>10.85034667972804</v>
       </c>
       <c r="D21">
-        <v>2.81312483248823</v>
+        <v>2.241829353167864</v>
       </c>
       <c r="E21">
-        <v>5.150411883275982</v>
+        <v>5.312076459924612</v>
       </c>
       <c r="F21">
-        <v>51.92768687750507</v>
+        <v>42.959085507979</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.120883024097298</v>
+        <v>3.863597609997615</v>
       </c>
       <c r="I21">
-        <v>4.79570395245896</v>
+        <v>4.474216315578158</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015649</v>
       </c>
       <c r="K21">
-        <v>36.06793173032186</v>
+        <v>28.89484325512819</v>
       </c>
       <c r="L21">
-        <v>6.041577756748324</v>
+        <v>20.98802761639512</v>
       </c>
       <c r="M21">
-        <v>13.36984967604999</v>
+        <v>21.94422297896053</v>
       </c>
       <c r="N21">
-        <v>6.561071892250886</v>
+        <v>5.737986576308141</v>
       </c>
       <c r="O21">
-        <v>10.78847920782272</v>
+        <v>13.67202542461688</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.215595527651364</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>10.97589295491025</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.52349952373884</v>
+        <v>15.22734672147213</v>
       </c>
       <c r="C22">
-        <v>10.01483619615897</v>
+        <v>11.27142564339964</v>
       </c>
       <c r="D22">
-        <v>2.815789050218316</v>
+        <v>2.226344988173227</v>
       </c>
       <c r="E22">
-        <v>5.255779105353359</v>
+        <v>5.412199441138536</v>
       </c>
       <c r="F22">
-        <v>53.21116595665865</v>
+        <v>43.77031812218085</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>3.897144266233017</v>
+        <v>3.663292610311341</v>
       </c>
       <c r="I22">
-        <v>4.597691521897727</v>
+        <v>4.301129708339409</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130162</v>
       </c>
       <c r="K22">
-        <v>36.86527099004704</v>
+        <v>29.31125616387061</v>
       </c>
       <c r="L22">
-        <v>6.121392022554421</v>
+        <v>21.18568471772628</v>
       </c>
       <c r="M22">
-        <v>13.85984571785686</v>
+        <v>22.38199380197882</v>
       </c>
       <c r="N22">
-        <v>6.666484678459677</v>
+        <v>5.796790994941326</v>
       </c>
       <c r="O22">
-        <v>11.02365416861922</v>
+        <v>14.16715360767346</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>7.336901352986408</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.22736203859433</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.25852363757557</v>
+        <v>14.94925037537729</v>
       </c>
       <c r="C23">
-        <v>9.803611313408279</v>
+        <v>11.03503317693545</v>
       </c>
       <c r="D23">
-        <v>2.823727315891858</v>
+        <v>2.231752958547502</v>
       </c>
       <c r="E23">
-        <v>5.199804528187742</v>
+        <v>5.358995653631733</v>
       </c>
       <c r="F23">
-        <v>52.63195203751512</v>
+        <v>43.4197225999588</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.013945455330988</v>
+        <v>3.768064200091795</v>
       </c>
       <c r="I23">
-        <v>4.693509494374213</v>
+        <v>4.382374063247251</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839352</v>
       </c>
       <c r="K23">
-        <v>36.52200436802764</v>
+        <v>29.15098032000412</v>
       </c>
       <c r="L23">
-        <v>6.083078542569823</v>
+        <v>21.12801115661557</v>
       </c>
       <c r="M23">
-        <v>13.59814084962502</v>
+        <v>22.19377977016099</v>
       </c>
       <c r="N23">
-        <v>6.605583102935617</v>
+        <v>5.768096839654837</v>
       </c>
       <c r="O23">
-        <v>10.89582968750868</v>
+        <v>13.90312574453537</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7.268395938348014</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.09146863788527</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.21198083025471</v>
+        <v>13.85686992558559</v>
       </c>
       <c r="C24">
-        <v>9.004493776475163</v>
+        <v>10.13261265280879</v>
       </c>
       <c r="D24">
-        <v>2.836250966682537</v>
+        <v>2.257567627150696</v>
       </c>
       <c r="E24">
-        <v>4.985024736669383</v>
+        <v>5.154642394511018</v>
       </c>
       <c r="F24">
-        <v>50.21278374627502</v>
+        <v>41.93431004837139</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.467478339613043</v>
+        <v>4.175111052517668</v>
       </c>
       <c r="I24">
-        <v>5.078966070438352</v>
+        <v>4.714589339806543</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>35.05680555849446</v>
+        <v>28.43163531001578</v>
       </c>
       <c r="L24">
-        <v>5.928211086860705</v>
+        <v>20.816692382012</v>
       </c>
       <c r="M24">
-        <v>12.64030334416662</v>
+        <v>21.41313318469683</v>
       </c>
       <c r="N24">
-        <v>6.379947025884915</v>
+        <v>5.652871653922839</v>
       </c>
       <c r="O24">
-        <v>10.40717783981135</v>
+        <v>12.86320551143489</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.012129072760088</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>10.5690356545298</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.00402020500087</v>
+        <v>12.64564495898119</v>
       </c>
       <c r="C25">
-        <v>8.091924887214272</v>
+        <v>9.178184231901716</v>
       </c>
       <c r="D25">
-        <v>2.845111734558627</v>
+        <v>2.286061811089104</v>
       </c>
       <c r="E25">
-        <v>4.74725981796448</v>
+        <v>4.928004488599797</v>
       </c>
       <c r="F25">
-        <v>47.48369559677371</v>
+        <v>40.27890786042739</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.974014754249783</v>
+        <v>4.630915042500709</v>
       </c>
       <c r="I25">
-        <v>5.510862430410262</v>
+        <v>5.088585270800734</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>33.40639908232193</v>
+        <v>27.62928484513032</v>
       </c>
       <c r="L25">
-        <v>5.754381649143165</v>
+        <v>20.44312654140303</v>
       </c>
       <c r="M25">
-        <v>11.66577374668005</v>
+        <v>20.59123660709315</v>
       </c>
       <c r="N25">
-        <v>6.131373731628996</v>
+        <v>5.523193102565644</v>
       </c>
       <c r="O25">
-        <v>9.863010114643647</v>
+        <v>11.82244950875669</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>6.729828784926465</v>
       </c>
       <c r="Q25">
+        <v>9.983489630203408</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
